--- a/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
+++ b/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
@@ -1592,11 +1592,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="#,##0.00###"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00###"/>
     <numFmt numFmtId="179" formatCode="#,##0.0##"/>
   </numFmts>
   <fonts count="21">
@@ -1610,27 +1610,34 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,15 +1651,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1663,14 +1676,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1691,41 +1696,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1737,22 +1733,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1767,7 +1766,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,7 +1808,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,25 +1898,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,133 +1934,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,36 +1998,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2039,35 +2008,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2090,8 +2030,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2100,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2109,7 +2108,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2118,130 +2117,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2258,7 +2257,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2279,10 +2278,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2618,8 +2617,8 @@
   <sheetPr/>
   <dimension ref="A1:DL217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
+++ b/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Matuchet\Инвентаризация 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="506">
   <si>
     <t>Объект</t>
   </si>
@@ -28,6 +23,12 @@
   </si>
   <si>
     <t>Где находится</t>
+  </si>
+  <si>
+    <t>В чьем распоряжении</t>
+  </si>
+  <si>
+    <t>Примечание</t>
   </si>
   <si>
     <t>Единица измерения</t>
@@ -52,6 +53,15 @@
     <t>17н135241</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Энтомологи</t>
+  </si>
+  <si>
+    <t>Вернуть энтомологам</t>
+  </si>
+  <si>
     <t>ШТ</t>
   </si>
   <si>
@@ -65,6 +75,12 @@
     <t>08803</t>
   </si>
   <si>
+    <t xml:space="preserve">Коридор </t>
+  </si>
+  <si>
+    <t>ЛЭМБ</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -75,6 +91,12 @@
     <t>м1-9104</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ЭФА</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -85,7 +107,7 @@
     <t>0862519</t>
   </si>
   <si>
-    <t>5</t>
+    <t>114</t>
   </si>
   <si>
     <t xml:space="preserve">тент  групповой
@@ -95,6 +117,9 @@
     <t>17н319</t>
   </si>
   <si>
+    <t>Полиэтиленовые</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -105,6 +130,12 @@
     <t>с1168</t>
   </si>
   <si>
+    <t>ЛЭМБ, Ботаники</t>
+  </si>
+  <si>
+    <t>3 - Ботаники, 1 - ЛЭМБ</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -115,7 +146,7 @@
     <t>м1-98266452</t>
   </si>
   <si>
-    <t>8</t>
+    <t>Липа</t>
   </si>
   <si>
     <t xml:space="preserve">лопата металл
@@ -135,6 +166,9 @@
     <t>м1-98266287</t>
   </si>
   <si>
+    <t>3 - АВ, 1 - ВМ, + неучтённая в 19</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -155,6 +189,12 @@
     <t>м1-98266288</t>
   </si>
   <si>
+    <t>19,8</t>
+  </si>
+  <si>
+    <t>в 8 - липа</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -165,6 +205,9 @@
     <t>м1-98266461</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -178,6 +221,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>Капроновые тенты</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -206,6 +252,12 @@
   </si>
   <si>
     <t>м1-98266839</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Без номеров</t>
   </si>
   <si>
     <t xml:space="preserve">палатка
@@ -232,9 +284,6 @@
     <t>01360997</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t xml:space="preserve">навигатор
 Garmin e Trex 20x
 </t>
@@ -278,6 +327,9 @@
     <t>10134-6189</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t xml:space="preserve">дистиллятор
 ДЭ-5 производительность 5 л/час
 </t>
@@ -321,6 +373,9 @@
     <t>10134-6225</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t xml:space="preserve">микроскоп
 стереоскопический с трансформатором и цифровой фотокамерой Sony Cyber-shot:7,2 MP
 </t>
@@ -340,9 +395,6 @@
     <t>10134-6154</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>10134-6152</t>
   </si>
   <si>
@@ -417,6 +469,9 @@
     <t>10134-6172</t>
   </si>
   <si>
+    <t>Еремеева</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -660,6 +715,12 @@
     <t>10134-6213</t>
   </si>
   <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Зайцева</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
@@ -678,10 +739,16 @@
     <t>10134-6217</t>
   </si>
   <si>
+    <t>Пустая коробка</t>
+  </si>
+  <si>
     <t>72</t>
   </si>
   <si>
     <t>10134-6218</t>
+  </si>
+  <si>
+    <t>Пустая коробка, 1 бинокуляр физически в 7ке</t>
   </si>
   <si>
     <t>73</t>
@@ -830,6 +897,9 @@
     <t>10134-6170</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>89</t>
   </si>
   <si>
@@ -841,6 +911,9 @@
     <t>10134-7100</t>
   </si>
   <si>
+    <t>Кандалакша</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
@@ -869,6 +942,9 @@
     <t>10136-9477</t>
   </si>
   <si>
+    <t>225</t>
+  </si>
+  <si>
     <t>93</t>
   </si>
   <si>
@@ -917,9 +993,6 @@
     <t>10136-9485</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>10136-9490</t>
   </si>
   <si>
@@ -935,9 +1008,6 @@
     <t>10136-9488</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>10136-9489</t>
   </si>
   <si>
@@ -945,9 +1015,6 @@
   </si>
   <si>
     <t>10136-9491</t>
-  </si>
-  <si>
-    <t>106</t>
   </si>
   <si>
     <t>10136-9492</t>
@@ -1012,9 +1079,6 @@
     <t>10136-11804</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>10136-11800</t>
   </si>
   <si>
@@ -1096,6 +1160,12 @@
     <t>10136-12111</t>
   </si>
   <si>
+    <t>Ботаники</t>
+  </si>
+  <si>
+    <t>На списании</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
@@ -1287,6 +1357,12 @@
     <t>10136-11379</t>
   </si>
   <si>
+    <t>Оранжерея №1</t>
+  </si>
+  <si>
+    <t>Чепортузова</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
@@ -1297,6 +1373,9 @@
   </si>
   <si>
     <t>10136-11381</t>
+  </si>
+  <si>
+    <t>Нераспакованный в коробке</t>
   </si>
   <si>
     <t>151</t>
@@ -1471,6 +1550,9 @@
     <t>084874</t>
   </si>
   <si>
+    <t>8,19</t>
+  </si>
+  <si>
     <t xml:space="preserve">гермокошелёк
 </t>
   </si>
@@ -1534,6 +1616,9 @@
     <t>082213</t>
   </si>
   <si>
+    <t>19, 114</t>
+  </si>
+  <si>
     <t xml:space="preserve">фляга
 </t>
   </si>
@@ -1548,6 +1633,12 @@
     <t>086059</t>
   </si>
   <si>
+    <t>8, 7</t>
+  </si>
+  <si>
+    <t>ЛЭМБ, ЭФА</t>
+  </si>
+  <si>
     <t xml:space="preserve">чехол штормовой на рюкзак
 </t>
   </si>
@@ -1590,101 +1681,21 @@
   </si>
   <si>
     <t>УПАК</t>
-  </si>
-  <si>
-    <t>В чьем распоряжении</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Энтомологи</t>
-  </si>
-  <si>
-    <t>Вернуть энтомологам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коридор </t>
-  </si>
-  <si>
-    <t>ЛЭМБ</t>
-  </si>
-  <si>
-    <t>ЭФА</t>
-  </si>
-  <si>
-    <t>Липа</t>
-  </si>
-  <si>
-    <t>3 - АВ, 1 - ВМ, + неучтённая в 19</t>
-  </si>
-  <si>
-    <t>ЛЭМБ, Ботаники</t>
-  </si>
-  <si>
-    <t>3 - Ботаники, 1 - ЛЭМБ</t>
-  </si>
-  <si>
-    <t>19,8</t>
-  </si>
-  <si>
-    <t>в 8 - липа</t>
-  </si>
-  <si>
-    <t>Капроновые тенты</t>
-  </si>
-  <si>
-    <t>Полиэтиленовые</t>
-  </si>
-  <si>
-    <t>Без номеров</t>
-  </si>
-  <si>
-    <t>Еремеева</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>Зайцева</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>Пустая коробка</t>
-  </si>
-  <si>
-    <t>Пустая коробка, 1 бинокуляр физически в 7ке</t>
-  </si>
-  <si>
-    <t>Кандалакша</t>
-  </si>
-  <si>
-    <t>Ботаники</t>
-  </si>
-  <si>
-    <t>На списании</t>
-  </si>
-  <si>
-    <t>Оранжерея №1</t>
-  </si>
-  <si>
-    <t>Чепортузова</t>
-  </si>
-  <si>
-    <t>Нераспакованный в коробке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00###"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0##"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="#,##0.00###"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0##"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1697,16 +1708,346 @@
       <name val="Arial"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1751,9 +2092,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,10 +2353,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,16 +2374,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1810,17 +2393,61 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2078,26 +2705,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:DN217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A217" sqref="A1:A217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="6" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.712962962963" customWidth="1"/>
+    <col min="3" max="6" width="17.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="11.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2108,45 +2735,45 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>474</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>476</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>477</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4">
         <v>1882.33</v>
@@ -2160,23 +2787,23 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>478</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4">
         <v>2447.65</v>
@@ -2190,23 +2817,23 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4">
         <v>2250.09</v>
@@ -2220,23 +2847,23 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4">
         <v>2943.11</v>
@@ -2250,25 +2877,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>488</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4">
         <v>2000</v>
@@ -2282,25 +2909,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>483</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>484</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4">
         <v>4348.75</v>
@@ -2314,25 +2941,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4">
         <v>2185</v>
@@ -2346,23 +2973,23 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4">
         <v>1457.5</v>
@@ -2376,25 +3003,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>482</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4">
         <v>3980</v>
@@ -2408,23 +3035,23 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4">
         <v>1791</v>
@@ -2438,25 +3065,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>485</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>486</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12" s="4">
         <v>1580</v>
@@ -2470,23 +3097,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H13" s="4">
         <v>7000</v>
@@ -2500,23 +3127,23 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4">
         <v>5070</v>
@@ -2530,25 +3157,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>487</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4">
         <v>6117.5</v>
@@ -2562,23 +3189,23 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4">
         <v>3978</v>
@@ -2590,27 +3217,27 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="17" spans="1:114">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4">
         <v>1225</v>
@@ -2622,27 +3249,27 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="18" spans="1:114">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>489</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4">
         <v>6940</v>
@@ -2659,20 +3286,20 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4">
         <v>41055</v>
@@ -2786,20 +3413,20 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21" s="4">
         <v>41055</v>
@@ -2913,20 +3540,20 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4">
         <v>17850</v>
@@ -3040,20 +3667,20 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4">
         <v>17600</v>
@@ -3167,20 +3794,20 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4">
         <v>17600</v>
@@ -3294,20 +3921,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4">
         <v>4827.33</v>
@@ -3421,29 +4048,29 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H26" s="4">
-        <v>51391.839999999997</v>
+        <v>51391.84</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
       </c>
       <c r="J26" s="6">
-        <v>51391.839999999997</v>
+        <v>51391.84</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -3548,20 +4175,20 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H27" s="4">
         <v>52323.27</v>
@@ -3675,20 +4302,20 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4">
         <v>48943.75</v>
@@ -3802,20 +4429,20 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H29" s="4">
         <v>17100.61</v>
@@ -3929,22 +4556,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4">
         <v>12456.45</v>
@@ -4058,22 +4685,22 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4">
         <v>3915.14</v>
@@ -4187,20 +4814,20 @@
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H32" s="4">
         <v>28522.2</v>
@@ -4309,25 +4936,25 @@
       <c r="DI32" s="9"/>
       <c r="DJ32" s="10"/>
     </row>
-    <row r="33" spans="1:118">
+    <row r="33" spans="1:114">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H33" s="4">
         <v>28522.2</v>
@@ -4436,25 +5063,25 @@
       <c r="DI33" s="9"/>
       <c r="DJ33" s="10"/>
     </row>
-    <row r="34" spans="1:118">
+    <row r="34" spans="1:114">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H34" s="4">
         <v>13568</v>
@@ -4563,25 +5190,25 @@
       <c r="DI34" s="9"/>
       <c r="DJ34" s="10"/>
     </row>
-    <row r="35" spans="1:118">
+    <row r="35" spans="1:114">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H35" s="4">
         <v>43605.9</v>
@@ -4690,25 +5317,25 @@
       <c r="DI35" s="9"/>
       <c r="DJ35" s="10"/>
     </row>
-    <row r="36" spans="1:118">
+    <row r="36" spans="1:114">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H36" s="4">
         <v>3429.12</v>
@@ -4817,25 +5444,25 @@
       <c r="DI36" s="9"/>
       <c r="DJ36" s="10"/>
     </row>
-    <row r="37" spans="1:118">
+    <row r="37" spans="1:114">
       <c r="A37">
         <v>18</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H37" s="4">
         <v>3429.12</v>
@@ -4944,33 +5571,33 @@
       <c r="DI37" s="9"/>
       <c r="DJ37" s="10"/>
     </row>
-    <row r="38" spans="1:118">
+    <row r="38" spans="4:5">
       <c r="D38" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:118">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H39" s="4">
         <v>3429.12</v>
@@ -5085,23 +5712,23 @@
     </row>
     <row r="40" spans="1:118">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H40" s="4">
         <v>3429.12</v>
@@ -5216,23 +5843,23 @@
     </row>
     <row r="41" spans="1:118">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H41" s="4">
         <v>3429.12</v>
@@ -5347,23 +5974,23 @@
     </row>
     <row r="42" spans="1:118">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H42" s="4">
         <v>3429.12</v>
@@ -5478,23 +6105,23 @@
     </row>
     <row r="43" spans="1:118">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H43" s="4">
         <v>3429.12</v>
@@ -5609,23 +6236,23 @@
     </row>
     <row r="44" spans="1:118">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4">
         <v>3429.12</v>
@@ -5740,23 +6367,23 @@
     </row>
     <row r="45" spans="1:118">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4">
         <v>3429.12</v>
@@ -5871,23 +6498,23 @@
     </row>
     <row r="46" spans="1:118">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H46" s="4">
         <v>3429.12</v>
@@ -6002,23 +6629,23 @@
     </row>
     <row r="47" spans="1:118">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4">
         <v>3429.12</v>
@@ -6133,23 +6760,23 @@
     </row>
     <row r="48" spans="1:118">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H48" s="4">
         <v>3429.12</v>
@@ -6264,23 +6891,23 @@
     </row>
     <row r="49" spans="1:118">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H49" s="4">
         <v>7173.26</v>
@@ -6395,23 +7022,23 @@
     </row>
     <row r="50" spans="1:118">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4">
         <v>7173.26</v>
@@ -6526,23 +7153,23 @@
     </row>
     <row r="51" spans="1:118">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H51" s="4">
         <v>7173.26</v>
@@ -6657,23 +7284,23 @@
     </row>
     <row r="52" spans="1:118">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4">
         <v>7173.26</v>
@@ -6788,23 +7415,23 @@
     </row>
     <row r="53" spans="1:118">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H53" s="4">
         <v>7173.26</v>
@@ -6919,23 +7546,23 @@
     </row>
     <row r="54" spans="1:118">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4">
         <v>7173.26</v>
@@ -7050,23 +7677,23 @@
     </row>
     <row r="55" spans="1:118">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H55" s="4">
         <v>7173.26</v>
@@ -7181,23 +7808,23 @@
     </row>
     <row r="56" spans="1:118">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H56" s="4">
         <v>3429.12</v>
@@ -7310,33 +7937,33 @@
       <c r="DM56" s="9"/>
       <c r="DN56" s="10"/>
     </row>
-    <row r="57" spans="1:118">
+    <row r="57" spans="4:5">
       <c r="D57" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:118">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H58" s="4">
         <v>3429.12</v>
@@ -7451,23 +8078,23 @@
     </row>
     <row r="59" spans="1:118">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H59" s="4">
         <v>7173.26</v>
@@ -7582,23 +8209,23 @@
     </row>
     <row r="60" spans="1:118">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H60" s="4">
         <v>7173.26</v>
@@ -7713,23 +8340,23 @@
     </row>
     <row r="61" spans="1:118">
       <c r="A61" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H61" s="4">
         <v>7173.26</v>
@@ -7844,23 +8471,23 @@
     </row>
     <row r="62" spans="1:118">
       <c r="A62" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H62" s="4">
         <v>7173.26</v>
@@ -7975,23 +8602,23 @@
     </row>
     <row r="63" spans="1:118">
       <c r="A63" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H63" s="4">
         <v>7173.26</v>
@@ -8106,23 +8733,23 @@
     </row>
     <row r="64" spans="1:118">
       <c r="A64" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H64" s="4">
         <v>29660</v>
@@ -8237,23 +8864,23 @@
     </row>
     <row r="65" spans="1:118">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H65" s="4">
         <v>25838.42</v>
@@ -8368,23 +8995,23 @@
     </row>
     <row r="66" spans="1:118">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H66" s="4">
         <v>3429.12</v>
@@ -8499,23 +9126,23 @@
     </row>
     <row r="67" spans="1:118">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H67" s="4">
         <v>3429.12</v>
@@ -8630,23 +9257,23 @@
     </row>
     <row r="68" spans="1:118">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H68" s="4">
         <v>3429.12</v>
@@ -8761,23 +9388,23 @@
     </row>
     <row r="69" spans="1:118">
       <c r="A69" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H69" s="4">
         <v>3429.12</v>
@@ -8892,23 +9519,23 @@
     </row>
     <row r="70" spans="1:118">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H70" s="4">
         <v>3429.12</v>
@@ -9023,23 +9650,23 @@
     </row>
     <row r="71" spans="1:118">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H71" s="4">
         <v>3429.12</v>
@@ -9154,23 +9781,23 @@
     </row>
     <row r="72" spans="1:118">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H72" s="4">
         <v>3429.12</v>
@@ -9285,23 +9912,23 @@
     </row>
     <row r="73" spans="1:118">
       <c r="A73" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H73" s="4">
         <v>3429.12</v>
@@ -9416,23 +10043,23 @@
     </row>
     <row r="74" spans="1:118">
       <c r="A74" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H74" s="4">
         <v>3429.12</v>
@@ -9547,23 +10174,23 @@
     </row>
     <row r="75" spans="1:118">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H75" s="4">
         <v>3429.12</v>
@@ -9676,33 +10303,33 @@
       <c r="DM75" s="9"/>
       <c r="DN75" s="10"/>
     </row>
-    <row r="76" spans="1:118">
+    <row r="76" spans="4:5">
       <c r="D76" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:118">
       <c r="A77" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H77" s="4">
         <v>3429.12</v>
@@ -9817,23 +10444,23 @@
     </row>
     <row r="78" spans="1:118">
       <c r="A78" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H78" s="4">
         <v>3429.12</v>
@@ -9948,23 +10575,23 @@
     </row>
     <row r="79" spans="1:118">
       <c r="A79" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H79" s="4">
         <v>3429.12</v>
@@ -10079,23 +10706,23 @@
     </row>
     <row r="80" spans="1:118">
       <c r="A80" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H80" s="4">
         <v>8775.31</v>
@@ -10210,23 +10837,23 @@
     </row>
     <row r="81" spans="1:118">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H81" s="4">
         <v>8775.31</v>
@@ -10341,23 +10968,23 @@
     </row>
     <row r="82" spans="1:118">
       <c r="A82" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H82" s="4">
         <v>8775.31</v>
@@ -10472,23 +11099,23 @@
     </row>
     <row r="83" spans="1:118">
       <c r="A83" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H83" s="4">
         <v>8775.31</v>
@@ -10603,23 +11230,23 @@
     </row>
     <row r="84" spans="1:118">
       <c r="A84" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H84" s="4">
         <v>8775.31</v>
@@ -10734,23 +11361,23 @@
     </row>
     <row r="85" spans="1:118">
       <c r="A85" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H85" s="4">
         <v>8775.31</v>
@@ -10865,23 +11492,23 @@
     </row>
     <row r="86" spans="1:118">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H86" s="4">
         <v>8775.31</v>
@@ -10996,23 +11623,23 @@
     </row>
     <row r="87" spans="1:118">
       <c r="A87" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H87" s="4">
         <v>8775.31</v>
@@ -11127,23 +11754,23 @@
     </row>
     <row r="88" spans="1:118">
       <c r="A88" s="1" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H88" s="4">
         <v>8775.31</v>
@@ -11258,23 +11885,23 @@
     </row>
     <row r="89" spans="1:118">
       <c r="A89" s="1" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H89" s="4">
         <v>8775.31</v>
@@ -11389,23 +12016,23 @@
     </row>
     <row r="90" spans="1:118">
       <c r="A90" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>491</v>
+        <v>215</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H90" s="4">
         <v>8775.31</v>
@@ -11520,23 +12147,23 @@
     </row>
     <row r="91" spans="1:118">
       <c r="A91" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>491</v>
+        <v>215</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H91" s="4">
         <v>8775.31</v>
@@ -11651,23 +12278,23 @@
     </row>
     <row r="92" spans="1:118">
       <c r="A92" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>491</v>
+        <v>215</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H92" s="4">
         <v>8775.31</v>
@@ -11782,25 +12409,25 @@
     </row>
     <row r="93" spans="1:118">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>491</v>
+        <v>215</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>494</v>
+        <v>223</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H93" s="4">
         <v>8775.31</v>
@@ -11915,25 +12542,25 @@
     </row>
     <row r="94" spans="1:118">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>491</v>
+        <v>215</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>495</v>
+        <v>226</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H94" s="4">
         <v>8775.36</v>
@@ -12048,23 +12675,23 @@
     </row>
     <row r="96" spans="1:118">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H96" s="4">
         <v>13567.99</v>
@@ -12179,23 +12806,23 @@
     </row>
     <row r="97" spans="1:118">
       <c r="A97" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H97" s="4">
         <v>13567.99</v>
@@ -12310,23 +12937,23 @@
     </row>
     <row r="98" spans="1:118">
       <c r="A98" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H98" s="4">
         <v>13567.99</v>
@@ -12441,23 +13068,23 @@
     </row>
     <row r="99" spans="1:118">
       <c r="A99" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H99" s="4">
         <v>13567.99</v>
@@ -12572,23 +13199,23 @@
     </row>
     <row r="100" spans="1:118">
       <c r="A100" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H100" s="4">
         <v>13567.99</v>
@@ -12703,23 +13330,23 @@
     </row>
     <row r="101" spans="1:118">
       <c r="A101" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H101" s="4">
         <v>13567.99</v>
@@ -12834,23 +13461,23 @@
     </row>
     <row r="102" spans="1:118">
       <c r="A102" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H102" s="4">
         <v>78302.8</v>
@@ -12965,23 +13592,23 @@
     </row>
     <row r="103" spans="1:118">
       <c r="A103" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H103" s="4">
         <v>4500.16</v>
@@ -13096,32 +13723,32 @@
     </row>
     <row r="104" spans="1:118">
       <c r="A104" s="1" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H104" s="4">
-        <v>4347.1499999999996</v>
+        <v>4347.15</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
       </c>
       <c r="J104" s="6">
-        <v>4347.1499999999996</v>
+        <v>4347.15</v>
       </c>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -13227,32 +13854,32 @@
     </row>
     <row r="105" spans="1:118">
       <c r="A105" s="1" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H105" s="4">
-        <v>36622.080000000002</v>
+        <v>36622.08</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
       </c>
       <c r="J105" s="6">
-        <v>36622.080000000002</v>
+        <v>36622.08</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -13358,23 +13985,23 @@
     </row>
     <row r="106" spans="1:118">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H106" s="4">
         <v>11880.44</v>
@@ -13489,23 +14116,23 @@
     </row>
     <row r="107" spans="1:118">
       <c r="A107" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H107" s="4">
         <v>45001.61</v>
@@ -13620,23 +14247,23 @@
     </row>
     <row r="108" spans="1:118">
       <c r="A108" s="1" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H108" s="4">
         <v>3536.39</v>
@@ -13751,23 +14378,23 @@
     </row>
     <row r="109" spans="1:118">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H109" s="4">
         <v>36599.67</v>
@@ -13882,23 +14509,23 @@
     </row>
     <row r="110" spans="1:118">
       <c r="A110" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H110" s="4">
         <v>31501.13</v>
@@ -14013,23 +14640,23 @@
     </row>
     <row r="111" spans="1:118">
       <c r="A111" s="1" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H111" s="4">
         <v>5453.12</v>
@@ -14144,21 +14771,21 @@
     </row>
     <row r="112" spans="1:118">
       <c r="A112" s="1" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>496</v>
+        <v>273</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H112" s="4">
         <v>20000</v>
@@ -14273,25 +14900,25 @@
     </row>
     <row r="113" spans="1:118">
       <c r="A113" s="1" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H113" s="4">
         <v>44361.67</v>
@@ -14406,19 +15033,19 @@
     </row>
     <row r="115" spans="1:118">
       <c r="A115" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H115" s="4">
         <v>38000</v>
@@ -14533,23 +15160,23 @@
     </row>
     <row r="116" spans="1:118">
       <c r="A116" s="1" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H116" s="4">
         <v>38000</v>
@@ -14664,23 +15291,23 @@
     </row>
     <row r="117" spans="1:118">
       <c r="A117" s="1" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H117" s="4">
         <v>38000</v>
@@ -14795,23 +15422,23 @@
     </row>
     <row r="118" spans="1:118">
       <c r="A118" s="1" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H118" s="4">
         <v>38000</v>
@@ -14926,23 +15553,23 @@
     </row>
     <row r="119" spans="1:118">
       <c r="A119" s="1" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H119" s="4">
         <v>38000</v>
@@ -15057,23 +15684,23 @@
     </row>
     <row r="120" spans="1:118">
       <c r="A120" s="1" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H120" s="4">
         <v>38000</v>
@@ -15188,23 +15815,23 @@
     </row>
     <row r="121" spans="1:118">
       <c r="A121" s="1" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H121" s="4">
         <v>38000</v>
@@ -15319,23 +15946,23 @@
     </row>
     <row r="122" spans="1:118">
       <c r="A122" s="1" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H122" s="4">
         <v>38000</v>
@@ -15450,23 +16077,23 @@
     </row>
     <row r="123" spans="1:118">
       <c r="A123" s="1" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H123" s="4">
         <v>38000</v>
@@ -15581,23 +16208,23 @@
     </row>
     <row r="124" spans="1:118">
       <c r="A124" s="1" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H124" s="4">
         <v>38000</v>
@@ -15712,23 +16339,23 @@
     </row>
     <row r="125" spans="1:118">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H125" s="4">
         <v>38000</v>
@@ -15843,23 +16470,23 @@
     </row>
     <row r="126" spans="1:118">
       <c r="A126" s="1" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H126" s="4">
         <v>38000</v>
@@ -15974,23 +16601,23 @@
     </row>
     <row r="127" spans="1:118">
       <c r="A127" s="1" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H127" s="4">
         <v>38000</v>
@@ -16105,23 +16732,23 @@
     </row>
     <row r="128" spans="1:118">
       <c r="A128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H128" s="4">
         <v>38000</v>
@@ -16236,23 +16863,23 @@
     </row>
     <row r="129" spans="1:118">
       <c r="A129" s="1" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H129" s="4">
         <v>38000</v>
@@ -16367,23 +16994,23 @@
     </row>
     <row r="130" spans="1:118">
       <c r="A130" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="E130" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H130" s="4">
         <v>38000</v>
@@ -16498,23 +17125,23 @@
     </row>
     <row r="131" spans="1:118">
       <c r="A131" s="1" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H131" s="4">
         <v>38000</v>
@@ -16629,19 +17256,19 @@
     </row>
     <row r="132" spans="1:118">
       <c r="A132" s="1" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H132" s="4">
         <v>38000</v>
@@ -16756,23 +17383,23 @@
     </row>
     <row r="134" spans="1:118">
       <c r="A134" s="1" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H134" s="4">
         <v>8600</v>
@@ -16887,25 +17514,25 @@
     </row>
     <row r="135" spans="1:118">
       <c r="A135" s="1" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H135" s="4">
         <v>3400</v>
@@ -17020,25 +17647,25 @@
     </row>
     <row r="136" spans="1:118">
       <c r="A136" s="1" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H136" s="4">
         <v>3400</v>
@@ -17153,23 +17780,23 @@
     </row>
     <row r="137" spans="1:118">
       <c r="A137" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H137" s="4">
         <v>17800</v>
@@ -17284,25 +17911,25 @@
     </row>
     <row r="138" spans="1:118">
       <c r="A138" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H138" s="4">
         <v>18900</v>
@@ -17417,23 +18044,23 @@
     </row>
     <row r="139" spans="1:118">
       <c r="A139" s="1" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H139" s="4">
         <v>17800</v>
@@ -17548,23 +18175,23 @@
     </row>
     <row r="140" spans="1:118">
       <c r="A140" s="1" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H140" s="4">
         <v>16760</v>
@@ -17679,25 +18306,25 @@
     </row>
     <row r="141" spans="1:118">
       <c r="A141" s="1" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H141" s="4">
         <v>16200</v>
@@ -17812,25 +18439,25 @@
     </row>
     <row r="142" spans="1:118">
       <c r="A142" s="1" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H142" s="4">
         <v>16432.22</v>
@@ -17945,34 +18572,34 @@
     </row>
     <row r="143" spans="1:118">
       <c r="A143" s="1" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H143" s="4">
-        <v>17408.490000000002</v>
+        <v>17408.49</v>
       </c>
       <c r="I143" s="5">
         <v>1</v>
       </c>
       <c r="J143" s="6">
-        <v>17408.490000000002</v>
+        <v>17408.49</v>
       </c>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
@@ -18078,23 +18705,23 @@
     </row>
     <row r="144" spans="1:118">
       <c r="A144" s="1" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H144" s="4">
         <v>16432.22</v>
@@ -18209,23 +18836,23 @@
     </row>
     <row r="145" spans="1:118">
       <c r="A145" s="1" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H145" s="4">
         <v>16432.22</v>
@@ -18340,23 +18967,23 @@
     </row>
     <row r="146" spans="1:118">
       <c r="A146" s="1" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H146" s="4">
         <v>18749.28</v>
@@ -18471,25 +19098,25 @@
     </row>
     <row r="147" spans="1:118">
       <c r="A147" s="1" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H147" s="4">
         <v>14348.32</v>
@@ -18604,25 +19231,25 @@
     </row>
     <row r="148" spans="1:118">
       <c r="A148" s="1" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H148" s="4">
         <v>14348.32</v>
@@ -18737,25 +19364,25 @@
     </row>
     <row r="149" spans="1:118">
       <c r="A149" s="1" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H149" s="4">
         <v>14348.32</v>
@@ -18870,25 +19497,25 @@
     </row>
     <row r="150" spans="1:118">
       <c r="A150" s="1" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H150" s="4">
         <v>14348.32</v>
@@ -19003,25 +19630,25 @@
     </row>
     <row r="151" spans="1:118">
       <c r="A151" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H151" s="4">
         <v>14348.32</v>
@@ -19134,32 +19761,32 @@
       <c r="DM151" s="9"/>
       <c r="DN151" s="10"/>
     </row>
-    <row r="152" spans="1:118">
+    <row r="152" spans="4:6">
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:118">
       <c r="A153" s="1" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H153" s="4">
         <v>14348.32</v>
@@ -19274,23 +19901,23 @@
     </row>
     <row r="154" spans="1:118">
       <c r="A154" s="1" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H154" s="4">
         <v>21111.94</v>
@@ -19405,23 +20032,23 @@
     </row>
     <row r="155" spans="1:118">
       <c r="A155" s="1" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H155" s="4">
         <v>21111.94</v>
@@ -19536,23 +20163,23 @@
     </row>
     <row r="156" spans="1:118">
       <c r="A156" s="1" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H156" s="4">
         <v>21111.94</v>
@@ -19667,23 +20294,23 @@
     </row>
     <row r="157" spans="1:118">
       <c r="A157" s="1" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H157" s="4">
         <v>19910</v>
@@ -19798,23 +20425,23 @@
     </row>
     <row r="158" spans="1:118">
       <c r="A158" s="1" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H158" s="4">
         <v>22000</v>
@@ -19929,23 +20556,23 @@
     </row>
     <row r="159" spans="1:118">
       <c r="A159" s="1" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H159" s="4">
         <v>22000</v>
@@ -20060,25 +20687,25 @@
     </row>
     <row r="160" spans="1:118">
       <c r="A160" s="1" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H160" s="4">
         <v>12530</v>
@@ -20193,23 +20820,23 @@
     </row>
     <row r="161" spans="1:118">
       <c r="A161" s="1" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H161" s="4">
         <v>19910</v>
@@ -20324,23 +20951,23 @@
     </row>
     <row r="162" spans="1:118">
       <c r="A162" s="1" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H162" s="4">
         <v>19910</v>
@@ -20455,23 +21082,23 @@
     </row>
     <row r="163" spans="1:118">
       <c r="A163" s="1" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H163" s="4">
         <v>19910</v>
@@ -20586,23 +21213,23 @@
     </row>
     <row r="164" spans="1:118">
       <c r="A164" s="1" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H164" s="4">
         <v>19910</v>
@@ -20717,23 +21344,23 @@
     </row>
     <row r="165" spans="1:118">
       <c r="A165" s="1" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H165" s="4">
         <v>19910</v>
@@ -20848,23 +21475,23 @@
     </row>
     <row r="166" spans="1:118">
       <c r="A166" s="1" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H166" s="4">
         <v>19910</v>
@@ -20979,23 +21606,23 @@
     </row>
     <row r="167" spans="1:118">
       <c r="A167" s="1" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H167" s="4">
         <v>19910</v>
@@ -21110,23 +21737,23 @@
     </row>
     <row r="168" spans="1:118">
       <c r="A168" s="1" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H168" s="4">
         <v>19910</v>
@@ -21241,23 +21868,23 @@
     </row>
     <row r="169" spans="1:118">
       <c r="A169" s="1" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H169" s="4">
         <v>19910</v>
@@ -21372,23 +21999,23 @@
     </row>
     <row r="170" spans="1:118">
       <c r="A170" s="1" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H170" s="4">
         <v>4620</v>
@@ -21503,23 +22130,23 @@
     </row>
     <row r="172" spans="1:118">
       <c r="A172" s="1" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H172" s="4">
         <v>12400</v>
@@ -21634,23 +22261,23 @@
     </row>
     <row r="173" spans="1:118">
       <c r="A173" s="1" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H173" s="4">
         <v>11010</v>
@@ -21765,23 +22392,23 @@
     </row>
     <row r="174" spans="1:118">
       <c r="A174" s="1" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H174" s="4">
         <v>11010</v>
@@ -21896,23 +22523,23 @@
     </row>
     <row r="175" spans="1:118">
       <c r="A175" s="1" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H175" s="4">
         <v>11010</v>
@@ -22027,23 +22654,23 @@
     </row>
     <row r="176" spans="1:118">
       <c r="A176" s="1" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H176" s="4">
         <v>11010</v>
@@ -22158,25 +22785,25 @@
     </row>
     <row r="177" spans="1:118">
       <c r="A177" s="1" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H177" s="4">
         <v>11010</v>
@@ -22291,23 +22918,23 @@
     </row>
     <row r="178" spans="1:118">
       <c r="A178" s="1" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H178" s="4">
         <v>11010</v>
@@ -22422,23 +23049,23 @@
     </row>
     <row r="179" spans="1:118">
       <c r="A179" s="1" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H179" s="4">
         <v>11010</v>
@@ -22553,23 +23180,23 @@
     </row>
     <row r="180" spans="1:118">
       <c r="A180" s="1" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H180" s="4">
         <v>11010</v>
@@ -22684,19 +23311,25 @@
     </row>
     <row r="181" spans="1:118">
       <c r="A181" s="1" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
+        <v>423</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="G181" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H181" s="4">
         <v>11010</v>
@@ -22811,19 +23444,23 @@
     </row>
     <row r="182" spans="1:118">
       <c r="A182" s="1" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H182" s="4">
         <v>12390</v>
@@ -22938,19 +23575,23 @@
     </row>
     <row r="183" spans="1:118">
       <c r="A183" s="1" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+        <v>428</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H183" s="4">
         <v>12390</v>
@@ -23065,19 +23706,23 @@
     </row>
     <row r="184" spans="1:118">
       <c r="A184" s="1" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+        <v>431</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H184" s="4">
         <v>5800</v>
@@ -23192,19 +23837,23 @@
     </row>
     <row r="185" spans="1:118">
       <c r="A185" s="1" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H185" s="4">
         <v>13271</v>
@@ -23319,19 +23968,23 @@
     </row>
     <row r="186" spans="1:118">
       <c r="A186" s="1" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+        <v>437</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H186" s="4">
         <v>11472.1</v>
@@ -23446,19 +24099,25 @@
     </row>
     <row r="187" spans="1:118">
       <c r="A187" s="1" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
+        <v>440</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G187" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H187" s="4">
         <v>7979</v>
@@ -23573,19 +24232,25 @@
     </row>
     <row r="188" spans="1:118">
       <c r="A188" s="1" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+        <v>443</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G188" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H188" s="4">
         <v>8740</v>
@@ -23700,19 +24365,25 @@
     </row>
     <row r="189" spans="1:118">
       <c r="A189" s="1" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
+        <v>445</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G189" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H189" s="4">
         <v>7979</v>
@@ -23827,19 +24498,23 @@
     </row>
     <row r="191" spans="1:118">
       <c r="A191" s="1" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+        <v>447</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H191" s="4">
         <v>7979</v>
@@ -23954,19 +24629,23 @@
     </row>
     <row r="192" spans="1:118">
       <c r="A192" s="1" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
+        <v>449</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H192" s="4">
         <v>7979</v>
@@ -24081,19 +24760,25 @@
     </row>
     <row r="193" spans="1:118">
       <c r="A193" s="1" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+        <v>452</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G193" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H193" s="4">
         <v>9150</v>
@@ -24208,19 +24893,23 @@
     </row>
     <row r="194" spans="1:118">
       <c r="A194" s="1" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+        <v>454</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H194" s="4">
         <v>9150</v>
@@ -24335,19 +25024,25 @@
     </row>
     <row r="195" spans="1:118">
       <c r="A195" s="1" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
+        <v>456</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G195" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H195" s="4">
         <v>9150</v>
@@ -24462,19 +25157,23 @@
     </row>
     <row r="196" spans="1:118">
       <c r="A196" s="1" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
+        <v>458</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H196" s="4">
         <v>9150</v>
@@ -24589,19 +25288,19 @@
     </row>
     <row r="197" spans="1:118">
       <c r="A197" s="1" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H197" s="4">
         <v>3212.93</v>
@@ -24716,19 +25415,21 @@
     </row>
     <row r="198" spans="1:118">
       <c r="A198" s="1" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D198" s="3"/>
+        <v>464</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H198" s="4">
         <v>56133</v>
@@ -24843,19 +25544,23 @@
     </row>
     <row r="200" spans="1:118">
       <c r="A200" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+        <v>466</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H200" s="4">
         <v>400</v>
@@ -24970,19 +25675,23 @@
     </row>
     <row r="201" spans="1:118">
       <c r="A201" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H201" s="4">
         <v>363.9</v>
@@ -25097,19 +25806,23 @@
     </row>
     <row r="202" spans="1:118">
       <c r="A202" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+        <v>471</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H202" s="4">
         <v>400</v>
@@ -25224,19 +25937,23 @@
     </row>
     <row r="203" spans="1:118">
       <c r="A203" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H203" s="4">
         <v>494</v>
@@ -25351,19 +26068,23 @@
     </row>
     <row r="204" spans="1:118">
       <c r="A204" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+        <v>475</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H204" s="4">
         <v>220</v>
@@ -25478,19 +26199,23 @@
     </row>
     <row r="205" spans="1:118">
       <c r="A205" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
+        <v>477</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H205" s="4">
         <v>646</v>
@@ -25605,19 +26330,21 @@
     </row>
     <row r="206" spans="1:118">
       <c r="A206" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
+      <c r="E206" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H206" s="4">
         <v>5000</v>
@@ -25732,19 +26459,23 @@
     </row>
     <row r="207" spans="1:118">
       <c r="A207" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+        <v>481</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H207" s="4">
         <v>430</v>
@@ -25859,19 +26590,23 @@
     </row>
     <row r="208" spans="1:118">
       <c r="A208" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H208" s="4">
         <v>1500</v>
@@ -25986,19 +26721,23 @@
     </row>
     <row r="209" spans="1:118">
       <c r="A209" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H209" s="4">
         <v>500</v>
@@ -26113,19 +26852,25 @@
     </row>
     <row r="210" spans="1:118">
       <c r="A210" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
+        <v>488</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G210" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H210" s="4">
         <v>755</v>
@@ -26240,19 +26985,23 @@
     </row>
     <row r="211" spans="1:118">
       <c r="A211" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+        <v>490</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H211" s="4">
         <v>708.5</v>
@@ -26367,19 +27116,19 @@
     </row>
     <row r="212" spans="1:118">
       <c r="A212" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H212" s="4">
         <v>737.5</v>
@@ -26494,19 +27243,25 @@
     </row>
     <row r="213" spans="1:118">
       <c r="A213" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
+        <v>496</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G213" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H213" s="4">
         <v>1165</v>
@@ -26621,19 +27376,23 @@
     </row>
     <row r="214" spans="1:118">
       <c r="A214" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H214" s="4">
         <v>448.5</v>
@@ -26748,19 +27507,23 @@
     </row>
     <row r="215" spans="1:118">
       <c r="A215" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
+        <v>498</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="H215" s="4">
         <v>2015</v>
@@ -26875,19 +27638,23 @@
     </row>
     <row r="216" spans="1:118">
       <c r="A216" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+        <v>501</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H216" s="4">
         <v>3090</v>
@@ -27002,19 +27769,21 @@
     </row>
     <row r="217" spans="1:118">
       <c r="A217" s="1" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="H217" s="4">
         <v>581</v>
@@ -27129,5 +27898,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
+++ b/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Все оборудование" sheetId="1" r:id="rId1"/>
     <sheet name="Опись по кабинетам" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Все оборудование'!$A$1:$K$206</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1701,11 +1704,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#\ ##0.00###"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="#\ ##0.00###"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="#\ ##0.0##"/>
     <numFmt numFmtId="182" formatCode="#\ ##0.00"/>
   </numFmts>
@@ -1723,8 +1726,31 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,13 +1761,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1759,17 +1778,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1840,7 +1850,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1859,13 +1869,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1876,7 +1879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,37 +1897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,7 +1933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,7 +1945,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,37 +1993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,19 +2011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,25 +2041,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,6 +2088,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2096,17 +2125,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2159,21 +2177,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2187,55 +2190,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2244,91 +2244,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2366,7 +2369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,10 +2700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DO208"/>
+  <dimension ref="A1:DO206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -3328,18 +3331,148 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="20" ht="30.6" spans="1:115">
+    <row r="19" ht="30.6" spans="1:115">
+      <c r="A19" s="6">
+        <v>308</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11">
+        <v>41055</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="13">
+        <v>41055</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CB19" s="13"/>
+      <c r="CC19" s="13"/>
+      <c r="CD19" s="13"/>
+      <c r="CE19" s="13"/>
+      <c r="CF19" s="13"/>
+      <c r="CG19" s="13"/>
+      <c r="CH19" s="13"/>
+      <c r="CI19" s="13"/>
+      <c r="CJ19" s="13"/>
+      <c r="CK19" s="13"/>
+      <c r="CL19" s="13"/>
+      <c r="CM19" s="13"/>
+      <c r="CN19" s="13"/>
+      <c r="CO19" s="13"/>
+      <c r="CP19" s="13"/>
+      <c r="CQ19" s="13"/>
+      <c r="CR19" s="13"/>
+      <c r="CS19" s="13"/>
+      <c r="CU19" s="9"/>
+      <c r="CV19" s="9"/>
+      <c r="CW19" s="9"/>
+      <c r="CX19" s="9"/>
+      <c r="CY19" s="9"/>
+      <c r="CZ19" s="9"/>
+      <c r="DA19" s="9"/>
+      <c r="DB19" s="9"/>
+      <c r="DD19" s="9"/>
+      <c r="DE19" s="9"/>
+      <c r="DF19" s="9"/>
+      <c r="DG19" s="9"/>
+      <c r="DH19" s="9"/>
+      <c r="DI19" s="9"/>
+      <c r="DJ19" s="9"/>
+      <c r="DK19" s="9"/>
+    </row>
+    <row r="20" spans="1:115">
       <c r="A20" s="6">
         <v>308</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>61</v>
@@ -3463,16 +3596,16 @@
         <v>308</v>
       </c>
       <c r="B21" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>22</v>
@@ -3482,13 +3615,13 @@
         <v>17</v>
       </c>
       <c r="I21" s="11">
-        <v>41055</v>
+        <v>17850</v>
       </c>
       <c r="J21" s="12">
         <v>1</v>
       </c>
       <c r="K21" s="13">
-        <v>41055</v>
+        <v>17850</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -3593,16 +3726,16 @@
         <v>308</v>
       </c>
       <c r="B22" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>22</v>
@@ -3612,13 +3745,13 @@
         <v>17</v>
       </c>
       <c r="I22" s="11">
-        <v>17850</v>
+        <v>17600</v>
       </c>
       <c r="J22" s="12">
         <v>1</v>
       </c>
       <c r="K22" s="13">
-        <v>17850</v>
+        <v>17600</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -3723,19 +3856,19 @@
         <v>308</v>
       </c>
       <c r="B23" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
@@ -3853,32 +3986,32 @@
         <v>308</v>
       </c>
       <c r="B24" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="11">
-        <v>17600</v>
+        <v>4827.33</v>
       </c>
       <c r="J24" s="12">
         <v>1</v>
       </c>
       <c r="K24" s="13">
-        <v>17600</v>
+        <v>4827.33</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -3983,16 +4116,16 @@
         <v>308</v>
       </c>
       <c r="B25" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>22</v>
@@ -4002,13 +4135,13 @@
         <v>17</v>
       </c>
       <c r="I25" s="11">
-        <v>4827.33</v>
+        <v>51391.84</v>
       </c>
       <c r="J25" s="12">
         <v>1</v>
       </c>
       <c r="K25" s="13">
-        <v>4827.33</v>
+        <v>51391.84</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -4113,16 +4246,16 @@
         <v>308</v>
       </c>
       <c r="B26" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>22</v>
@@ -4132,13 +4265,13 @@
         <v>17</v>
       </c>
       <c r="I26" s="11">
-        <v>51391.84</v>
+        <v>52323.27</v>
       </c>
       <c r="J26" s="12">
         <v>1</v>
       </c>
       <c r="K26" s="13">
-        <v>51391.84</v>
+        <v>52323.27</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -4243,32 +4376,32 @@
         <v>308</v>
       </c>
       <c r="B27" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="11">
-        <v>52323.27</v>
+        <v>48943.75</v>
       </c>
       <c r="J27" s="12">
         <v>1</v>
       </c>
       <c r="K27" s="13">
-        <v>52323.27</v>
+        <v>48943.75</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -4373,13 +4506,13 @@
         <v>308</v>
       </c>
       <c r="B28" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>95</v>
@@ -4392,13 +4525,13 @@
         <v>17</v>
       </c>
       <c r="I28" s="11">
-        <v>48943.75</v>
+        <v>17100.61</v>
       </c>
       <c r="J28" s="12">
         <v>1</v>
       </c>
       <c r="K28" s="13">
-        <v>48943.75</v>
+        <v>17100.61</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -4503,32 +4636,34 @@
         <v>308</v>
       </c>
       <c r="B29" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="11">
-        <v>17100.61</v>
+        <v>12456.45</v>
       </c>
       <c r="J29" s="12">
         <v>1</v>
       </c>
       <c r="K29" s="13">
-        <v>17100.61</v>
+        <v>12456.45</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -4633,13 +4768,13 @@
         <v>308</v>
       </c>
       <c r="B30" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>31</v>
@@ -4654,13 +4789,13 @@
         <v>17</v>
       </c>
       <c r="I30" s="11">
-        <v>12456.45</v>
+        <v>3915.14</v>
       </c>
       <c r="J30" s="12">
         <v>1</v>
       </c>
       <c r="K30" s="13">
-        <v>12456.45</v>
+        <v>3915.14</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -4765,34 +4900,32 @@
         <v>308</v>
       </c>
       <c r="B31" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="11">
-        <v>3915.14</v>
+        <v>28522.2</v>
       </c>
       <c r="J31" s="12">
         <v>1</v>
       </c>
       <c r="K31" s="13">
-        <v>3915.14</v>
+        <v>28522.2</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -4897,13 +5030,13 @@
         <v>308</v>
       </c>
       <c r="B32" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>76</v>
@@ -5027,32 +5160,32 @@
         <v>308</v>
       </c>
       <c r="B33" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="11">
-        <v>28522.2</v>
+        <v>13568</v>
       </c>
       <c r="J33" s="12">
         <v>1</v>
       </c>
       <c r="K33" s="13">
-        <v>28522.2</v>
+        <v>13568</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -5157,32 +5290,32 @@
         <v>308</v>
       </c>
       <c r="B34" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="11">
-        <v>13568</v>
+        <v>43605.9</v>
       </c>
       <c r="J34" s="12">
         <v>1</v>
       </c>
       <c r="K34" s="13">
-        <v>13568</v>
+        <v>43605.9</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -5287,13 +5420,13 @@
         <v>308</v>
       </c>
       <c r="B35" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>76</v>
@@ -5306,13 +5439,13 @@
         <v>17</v>
       </c>
       <c r="I35" s="11">
-        <v>43605.9</v>
+        <v>3429.12</v>
       </c>
       <c r="J35" s="12">
         <v>1</v>
       </c>
       <c r="K35" s="13">
-        <v>43605.9</v>
+        <v>3429.12</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -5417,13 +5550,13 @@
         <v>308</v>
       </c>
       <c r="B36" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>76</v>
@@ -5542,18 +5675,18 @@
       <c r="DJ36" s="9"/>
       <c r="DK36" s="9"/>
     </row>
-    <row r="37" spans="1:115">
+    <row r="37" spans="1:119">
       <c r="A37" s="6">
         <v>308</v>
       </c>
-      <c r="B37" s="6">
-        <v>18</v>
+      <c r="B37" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>76</v>
@@ -5592,10 +5725,10 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
@@ -5606,19 +5739,19 @@
       <c r="AP37" s="9"/>
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
       <c r="AT37" s="9"/>
       <c r="AU37" s="9"/>
       <c r="AV37" s="9"/>
-      <c r="AW37" s="9"/>
       <c r="AX37" s="9"/>
       <c r="AY37" s="9"/>
       <c r="AZ37" s="9"/>
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
-      <c r="BD37" s="11"/>
-      <c r="BE37" s="11"/>
-      <c r="BF37" s="11"/>
-      <c r="BG37" s="11"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="9"/>
       <c r="BH37" s="11"/>
       <c r="BI37" s="11"/>
       <c r="BJ37" s="11"/>
@@ -5629,18 +5762,18 @@
       <c r="BO37" s="11"/>
       <c r="BP37" s="11"/>
       <c r="BQ37" s="11"/>
-      <c r="BS37" s="12"/>
-      <c r="BT37" s="12"/>
-      <c r="BU37" s="12"/>
-      <c r="BV37" s="12"/>
+      <c r="BR37" s="11"/>
+      <c r="BS37" s="11"/>
+      <c r="BT37" s="11"/>
+      <c r="BU37" s="11"/>
       <c r="BW37" s="12"/>
       <c r="BX37" s="12"/>
       <c r="BY37" s="12"/>
       <c r="BZ37" s="12"/>
-      <c r="CB37" s="13"/>
-      <c r="CC37" s="13"/>
-      <c r="CD37" s="13"/>
-      <c r="CE37" s="13"/>
+      <c r="CA37" s="12"/>
+      <c r="CB37" s="12"/>
+      <c r="CC37" s="12"/>
+      <c r="CD37" s="12"/>
       <c r="CF37" s="13"/>
       <c r="CG37" s="13"/>
       <c r="CH37" s="13"/>
@@ -5655,35 +5788,39 @@
       <c r="CQ37" s="13"/>
       <c r="CR37" s="13"/>
       <c r="CS37" s="13"/>
-      <c r="CU37" s="9"/>
-      <c r="CV37" s="9"/>
-      <c r="CW37" s="9"/>
-      <c r="CX37" s="9"/>
+      <c r="CT37" s="13"/>
+      <c r="CU37" s="13"/>
+      <c r="CV37" s="13"/>
+      <c r="CW37" s="13"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
       <c r="DB37" s="9"/>
+      <c r="DC37" s="9"/>
       <c r="DD37" s="9"/>
       <c r="DE37" s="9"/>
       <c r="DF37" s="9"/>
-      <c r="DG37" s="9"/>
       <c r="DH37" s="9"/>
       <c r="DI37" s="9"/>
       <c r="DJ37" s="9"/>
       <c r="DK37" s="9"/>
+      <c r="DL37" s="9"/>
+      <c r="DM37" s="9"/>
+      <c r="DN37" s="9"/>
+      <c r="DO37" s="9"/>
     </row>
     <row r="38" spans="1:119">
       <c r="A38" s="6">
         <v>308</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>76</v>
@@ -5811,13 +5948,13 @@
         <v>308</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>76</v>
@@ -5945,13 +6082,13 @@
         <v>308</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>76</v>
@@ -6079,13 +6216,13 @@
         <v>308</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>76</v>
@@ -6213,13 +6350,13 @@
         <v>308</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>76</v>
@@ -6347,13 +6484,13 @@
         <v>308</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>76</v>
@@ -6481,13 +6618,13 @@
         <v>308</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>76</v>
@@ -6615,13 +6752,13 @@
         <v>308</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>76</v>
@@ -6749,13 +6886,13 @@
         <v>308</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>76</v>
@@ -6883,13 +7020,13 @@
         <v>308</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>76</v>
@@ -6902,13 +7039,13 @@
         <v>17</v>
       </c>
       <c r="I47" s="11">
-        <v>3429.12</v>
+        <v>7173.26</v>
       </c>
       <c r="J47" s="12">
         <v>1</v>
       </c>
       <c r="K47" s="13">
-        <v>3429.12</v>
+        <v>7173.26</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -7017,19 +7154,19 @@
         <v>308</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
@@ -7151,19 +7288,19 @@
         <v>308</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
@@ -7285,13 +7422,13 @@
         <v>308</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>76</v>
@@ -7419,13 +7556,13 @@
         <v>308</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>76</v>
@@ -7553,19 +7690,19 @@
         <v>308</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
@@ -7687,13 +7824,13 @@
         <v>308</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>76</v>
@@ -7821,32 +7958,32 @@
         <v>308</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="11">
-        <v>7173.26</v>
+        <v>3429.12</v>
       </c>
       <c r="J54" s="12">
         <v>1</v>
       </c>
       <c r="K54" s="13">
-        <v>7173.26</v>
+        <v>3429.12</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -7955,13 +8092,13 @@
         <v>308</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>76</v>
@@ -8089,13 +8226,13 @@
         <v>308</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>76</v>
@@ -8108,13 +8245,13 @@
         <v>17</v>
       </c>
       <c r="I56" s="11">
-        <v>3429.12</v>
+        <v>7173.26</v>
       </c>
       <c r="J56" s="12">
         <v>1</v>
       </c>
       <c r="K56" s="13">
-        <v>3429.12</v>
+        <v>7173.26</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -8223,13 +8360,13 @@
         <v>308</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>76</v>
@@ -8357,13 +8494,13 @@
         <v>308</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>76</v>
@@ -8491,13 +8628,13 @@
         <v>308</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>76</v>
@@ -8625,13 +8762,13 @@
         <v>308</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>76</v>
@@ -8759,13 +8896,13 @@
         <v>308</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>76</v>
@@ -8778,13 +8915,13 @@
         <v>17</v>
       </c>
       <c r="I61" s="11">
-        <v>7173.26</v>
+        <v>29660</v>
       </c>
       <c r="J61" s="12">
         <v>1</v>
       </c>
       <c r="K61" s="13">
-        <v>7173.26</v>
+        <v>29660</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -8893,13 +9030,13 @@
         <v>308</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>76</v>
@@ -8912,13 +9049,13 @@
         <v>17</v>
       </c>
       <c r="I62" s="11">
-        <v>29660</v>
+        <v>25838.42</v>
       </c>
       <c r="J62" s="12">
         <v>1</v>
       </c>
       <c r="K62" s="13">
-        <v>29660</v>
+        <v>25838.42</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -9027,13 +9164,13 @@
         <v>308</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>76</v>
@@ -9046,13 +9183,13 @@
         <v>17</v>
       </c>
       <c r="I63" s="11">
-        <v>25838.42</v>
+        <v>3429.12</v>
       </c>
       <c r="J63" s="12">
         <v>1</v>
       </c>
       <c r="K63" s="13">
-        <v>25838.42</v>
+        <v>3429.12</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -9161,13 +9298,13 @@
         <v>308</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>76</v>
@@ -9295,13 +9432,13 @@
         <v>308</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>76</v>
@@ -9429,13 +9566,13 @@
         <v>308</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>76</v>
@@ -9563,13 +9700,13 @@
         <v>308</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>76</v>
@@ -9697,13 +9834,13 @@
         <v>308</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>76</v>
@@ -9831,13 +9968,13 @@
         <v>308</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>76</v>
@@ -9965,19 +10102,19 @@
         <v>308</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
@@ -10099,13 +10236,13 @@
         <v>308</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>76</v>
@@ -10233,13 +10370,13 @@
         <v>308</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>76</v>
@@ -10367,13 +10504,13 @@
         <v>308</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>76</v>
@@ -10501,13 +10638,13 @@
         <v>308</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>76</v>
@@ -10635,19 +10772,19 @@
         <v>308</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
@@ -10769,13 +10906,13 @@
         <v>308</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>76</v>
@@ -10788,13 +10925,13 @@
         <v>17</v>
       </c>
       <c r="I76" s="11">
-        <v>3429.12</v>
+        <v>8775.31</v>
       </c>
       <c r="J76" s="12">
         <v>1</v>
       </c>
       <c r="K76" s="13">
-        <v>3429.12</v>
+        <v>8775.31</v>
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -10903,13 +11040,13 @@
         <v>308</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>76</v>
@@ -11037,13 +11174,13 @@
         <v>308</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>76</v>
@@ -11171,13 +11308,13 @@
         <v>308</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>76</v>
@@ -11305,13 +11442,13 @@
         <v>308</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>76</v>
@@ -11439,13 +11576,13 @@
         <v>308</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>76</v>
@@ -11573,13 +11710,13 @@
         <v>308</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>76</v>
@@ -11707,13 +11844,13 @@
         <v>308</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>76</v>
@@ -11841,13 +11978,13 @@
         <v>308</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>76</v>
@@ -11975,13 +12112,13 @@
         <v>308</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>76</v>
@@ -12109,19 +12246,19 @@
         <v>308</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9" t="s">
@@ -12243,13 +12380,13 @@
         <v>308</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>217</v>
@@ -12377,13 +12514,13 @@
         <v>308</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>217</v>
@@ -12511,13 +12648,13 @@
         <v>308</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>217</v>
@@ -12525,7 +12662,9 @@
       <c r="F89" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="9"/>
+      <c r="G89" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="H89" s="9" t="s">
         <v>17</v>
       </c>
@@ -12645,13 +12784,13 @@
         <v>308</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>217</v>
@@ -12660,19 +12799,19 @@
         <v>218</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="11">
-        <v>8775.31</v>
+        <v>8775.36</v>
       </c>
       <c r="J90" s="12">
         <v>1</v>
       </c>
       <c r="K90" s="13">
-        <v>8775.31</v>
+        <v>8775.36</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -12781,34 +12920,32 @@
         <v>308</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>228</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I91" s="11">
-        <v>8775.36</v>
+        <v>13567.99</v>
       </c>
       <c r="J91" s="12">
         <v>1</v>
       </c>
       <c r="K91" s="13">
-        <v>8775.36</v>
+        <v>13567.99</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -12917,13 +13054,13 @@
         <v>308</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>31</v>
@@ -13051,13 +13188,13 @@
         <v>308</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>31</v>
@@ -13185,13 +13322,13 @@
         <v>308</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>31</v>
@@ -13319,13 +13456,13 @@
         <v>308</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>31</v>
@@ -13453,13 +13590,13 @@
         <v>308</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>31</v>
@@ -13587,32 +13724,32 @@
         <v>308</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I97" s="11">
-        <v>13567.99</v>
+        <v>78302.8</v>
       </c>
       <c r="J97" s="12">
         <v>1</v>
       </c>
       <c r="K97" s="13">
-        <v>13567.99</v>
+        <v>78302.8</v>
       </c>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -13721,13 +13858,13 @@
         <v>308</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>95</v>
@@ -13740,13 +13877,13 @@
         <v>17</v>
       </c>
       <c r="I98" s="11">
-        <v>78302.8</v>
+        <v>4500.16</v>
       </c>
       <c r="J98" s="12">
         <v>1</v>
       </c>
       <c r="K98" s="13">
-        <v>78302.8</v>
+        <v>4500.16</v>
       </c>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -13855,32 +13992,32 @@
         <v>308</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I99" s="11">
-        <v>4500.16</v>
+        <v>4347.15</v>
       </c>
       <c r="J99" s="12">
         <v>1</v>
       </c>
       <c r="K99" s="13">
-        <v>4500.16</v>
+        <v>4347.15</v>
       </c>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
@@ -13989,13 +14126,13 @@
         <v>308</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>76</v>
@@ -14008,13 +14145,13 @@
         <v>17</v>
       </c>
       <c r="I100" s="11">
-        <v>4347.15</v>
+        <v>36622.08</v>
       </c>
       <c r="J100" s="12">
         <v>1</v>
       </c>
       <c r="K100" s="13">
-        <v>4347.15</v>
+        <v>36622.08</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -14123,16 +14260,16 @@
         <v>308</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>22</v>
@@ -14142,13 +14279,13 @@
         <v>17</v>
       </c>
       <c r="I101" s="11">
-        <v>36622.08</v>
+        <v>11880.44</v>
       </c>
       <c r="J101" s="12">
         <v>1</v>
       </c>
       <c r="K101" s="13">
-        <v>36622.08</v>
+        <v>11880.44</v>
       </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
@@ -14257,32 +14394,32 @@
         <v>308</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="11">
-        <v>11880.44</v>
+        <v>45001.61</v>
       </c>
       <c r="J102" s="12">
         <v>1</v>
       </c>
       <c r="K102" s="13">
-        <v>11880.44</v>
+        <v>45001.61</v>
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -14391,16 +14528,16 @@
         <v>308</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>27</v>
@@ -14410,13 +14547,13 @@
         <v>17</v>
       </c>
       <c r="I103" s="11">
-        <v>45001.61</v>
+        <v>3536.39</v>
       </c>
       <c r="J103" s="12">
         <v>1</v>
       </c>
       <c r="K103" s="13">
-        <v>45001.61</v>
+        <v>3536.39</v>
       </c>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -14525,16 +14662,16 @@
         <v>308</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>27</v>
@@ -14544,13 +14681,13 @@
         <v>17</v>
       </c>
       <c r="I104" s="11">
-        <v>3536.39</v>
+        <v>36599.67</v>
       </c>
       <c r="J104" s="12">
         <v>1</v>
       </c>
       <c r="K104" s="13">
-        <v>3536.39</v>
+        <v>36599.67</v>
       </c>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -14659,32 +14796,32 @@
         <v>308</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="11">
-        <v>36599.67</v>
+        <v>31501.13</v>
       </c>
       <c r="J105" s="12">
         <v>1</v>
       </c>
       <c r="K105" s="13">
-        <v>36599.67</v>
+        <v>31501.13</v>
       </c>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
@@ -14793,16 +14930,16 @@
         <v>308</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>22</v>
@@ -14812,13 +14949,13 @@
         <v>17</v>
       </c>
       <c r="I106" s="11">
-        <v>31501.13</v>
+        <v>5453.12</v>
       </c>
       <c r="J106" s="12">
         <v>1</v>
       </c>
       <c r="K106" s="13">
-        <v>31501.13</v>
+        <v>5453.12</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -14927,32 +15064,30 @@
         <v>308</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I107" s="11">
-        <v>5453.12</v>
+        <v>20000</v>
       </c>
       <c r="J107" s="12">
         <v>1</v>
       </c>
       <c r="K107" s="13">
-        <v>5453.12</v>
+        <v>20000</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -15061,30 +15196,34 @@
         <v>308</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H108" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I108" s="11">
-        <v>20000</v>
+        <v>44361.67</v>
       </c>
       <c r="J108" s="12">
         <v>1</v>
       </c>
       <c r="K108" s="13">
-        <v>20000</v>
+        <v>44361.67</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -15193,34 +15332,28 @@
         <v>308</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I109" s="11">
-        <v>44361.67</v>
+        <v>38000</v>
       </c>
       <c r="J109" s="12">
         <v>1</v>
       </c>
       <c r="K109" s="13">
-        <v>44361.67</v>
+        <v>38000</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -15329,16 +15462,20 @@
         <v>308</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
+        <v>283</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9" t="s">
         <v>17</v>
@@ -15459,13 +15596,13 @@
         <v>308</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>284</v>
@@ -15593,13 +15730,13 @@
         <v>308</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>284</v>
@@ -15727,13 +15864,13 @@
         <v>308</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>284</v>
@@ -15861,13 +15998,13 @@
         <v>308</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>284</v>
@@ -15995,13 +16132,13 @@
         <v>308</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>284</v>
@@ -16129,13 +16266,13 @@
         <v>308</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>284</v>
@@ -16263,13 +16400,13 @@
         <v>308</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>284</v>
@@ -16397,13 +16534,13 @@
         <v>308</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>284</v>
@@ -16531,13 +16668,13 @@
         <v>308</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>284</v>
@@ -16665,13 +16802,13 @@
         <v>308</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>284</v>
@@ -16799,13 +16936,13 @@
         <v>308</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>284</v>
@@ -16933,13 +17070,13 @@
         <v>308</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>284</v>
@@ -17067,13 +17204,13 @@
         <v>308</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>107</v>
+        <v>307</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>284</v>
@@ -17201,13 +17338,13 @@
         <v>308</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>284</v>
@@ -17335,13 +17472,13 @@
         <v>308</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>284</v>
@@ -17469,20 +17606,16 @@
         <v>308</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>218</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9" t="s">
         <v>17</v>
@@ -17603,28 +17736,32 @@
         <v>308</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
+        <v>316</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I127" s="11">
-        <v>38000</v>
+        <v>8600</v>
       </c>
       <c r="J127" s="12">
         <v>1</v>
       </c>
       <c r="K127" s="13">
-        <v>38000</v>
+        <v>8600</v>
       </c>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
@@ -17733,32 +17870,34 @@
         <v>308</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H128" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I128" s="11">
-        <v>8600</v>
+        <v>3400</v>
       </c>
       <c r="J128" s="12">
         <v>1</v>
       </c>
       <c r="K128" s="13">
-        <v>8600</v>
+        <v>3400</v>
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
@@ -17867,19 +18006,19 @@
         <v>308</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>318</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G129" s="9" t="s">
         <v>43</v>
@@ -18003,34 +18142,32 @@
         <v>308</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G130" s="9"/>
       <c r="H130" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I130" s="11">
-        <v>3400</v>
+        <v>17800</v>
       </c>
       <c r="J130" s="12">
         <v>1</v>
       </c>
       <c r="K130" s="13">
-        <v>3400</v>
+        <v>17800</v>
       </c>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
@@ -18139,32 +18276,34 @@
         <v>308</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G131" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H131" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I131" s="11">
-        <v>17800</v>
+        <v>18900</v>
       </c>
       <c r="J131" s="12">
         <v>1</v>
       </c>
       <c r="K131" s="13">
-        <v>17800</v>
+        <v>18900</v>
       </c>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
@@ -18273,34 +18412,32 @@
         <v>308</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>324</v>
+        <v>31</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G132" s="9"/>
       <c r="H132" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I132" s="11">
-        <v>18900</v>
+        <v>17800</v>
       </c>
       <c r="J132" s="12">
         <v>1</v>
       </c>
       <c r="K132" s="13">
-        <v>18900</v>
+        <v>17800</v>
       </c>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
@@ -18409,13 +18546,13 @@
         <v>308</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>40</v>
@@ -18428,13 +18565,13 @@
         <v>17</v>
       </c>
       <c r="I133" s="11">
-        <v>17800</v>
+        <v>16760</v>
       </c>
       <c r="J133" s="12">
         <v>1</v>
       </c>
       <c r="K133" s="13">
-        <v>17800</v>
+        <v>16760</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
@@ -18543,32 +18680,34 @@
         <v>308</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I134" s="11">
-        <v>16760</v>
+        <v>16200</v>
       </c>
       <c r="J134" s="12">
         <v>1</v>
       </c>
       <c r="K134" s="13">
-        <v>16760</v>
+        <v>16200</v>
       </c>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -18677,13 +18816,13 @@
         <v>308</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>14</v>
@@ -18698,13 +18837,13 @@
         <v>17</v>
       </c>
       <c r="I135" s="11">
-        <v>16200</v>
+        <v>16432.22</v>
       </c>
       <c r="J135" s="12">
         <v>1</v>
       </c>
       <c r="K135" s="13">
-        <v>16200</v>
+        <v>16432.22</v>
       </c>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
@@ -18813,13 +18952,13 @@
         <v>308</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>14</v>
@@ -18834,13 +18973,13 @@
         <v>17</v>
       </c>
       <c r="I136" s="11">
-        <v>16432.22</v>
+        <v>17408.49</v>
       </c>
       <c r="J136" s="12">
         <v>1</v>
       </c>
       <c r="K136" s="13">
-        <v>16432.22</v>
+        <v>17408.49</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
@@ -18949,13 +19088,13 @@
         <v>308</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>14</v>
@@ -18963,20 +19102,18 @@
       <c r="F137" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G137" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="G137" s="9"/>
       <c r="H137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I137" s="11">
-        <v>17408.49</v>
+        <v>16432.22</v>
       </c>
       <c r="J137" s="12">
         <v>1</v>
       </c>
       <c r="K137" s="13">
-        <v>17408.49</v>
+        <v>16432.22</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
@@ -19085,13 +19222,13 @@
         <v>308</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>335</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>14</v>
@@ -19219,13 +19356,13 @@
         <v>308</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>14</v>
@@ -19238,13 +19375,13 @@
         <v>17</v>
       </c>
       <c r="I139" s="11">
-        <v>16432.22</v>
+        <v>18749.28</v>
       </c>
       <c r="J139" s="12">
         <v>1</v>
       </c>
       <c r="K139" s="13">
-        <v>16432.22</v>
+        <v>18749.28</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
@@ -19353,32 +19490,34 @@
         <v>308</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="9"/>
+        <v>350</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="H140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I140" s="11">
-        <v>18749.28</v>
+        <v>14348.32</v>
       </c>
       <c r="J140" s="12">
         <v>1</v>
       </c>
       <c r="K140" s="13">
-        <v>18749.28</v>
+        <v>14348.32</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
@@ -19487,13 +19626,13 @@
         <v>308</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>14</v>
@@ -19623,13 +19762,13 @@
         <v>308</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>14</v>
@@ -19759,13 +19898,13 @@
         <v>308</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>14</v>
@@ -19895,13 +20034,13 @@
         <v>308</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>14</v>
@@ -20031,13 +20170,13 @@
         <v>308</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>14</v>
@@ -20167,34 +20306,32 @@
         <v>308</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>351</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G146" s="9"/>
       <c r="H146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I146" s="11">
-        <v>14348.32</v>
+        <v>21111.94</v>
       </c>
       <c r="J146" s="12">
         <v>1</v>
       </c>
       <c r="K146" s="13">
-        <v>14348.32</v>
+        <v>21111.94</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
@@ -20303,13 +20440,13 @@
         <v>308</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>363</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>14</v>
@@ -20437,13 +20574,13 @@
         <v>308</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>363</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>14</v>
@@ -20571,16 +20708,16 @@
         <v>308</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>22</v>
@@ -20590,13 +20727,13 @@
         <v>17</v>
       </c>
       <c r="I149" s="11">
-        <v>21111.94</v>
+        <v>19910</v>
       </c>
       <c r="J149" s="12">
         <v>1</v>
       </c>
       <c r="K149" s="13">
-        <v>21111.94</v>
+        <v>19910</v>
       </c>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
@@ -20705,13 +20842,13 @@
         <v>308</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>61</v>
@@ -20724,13 +20861,13 @@
         <v>17</v>
       </c>
       <c r="I150" s="11">
-        <v>19910</v>
+        <v>22000</v>
       </c>
       <c r="J150" s="12">
         <v>1</v>
       </c>
       <c r="K150" s="13">
-        <v>19910</v>
+        <v>22000</v>
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
@@ -20839,13 +20976,13 @@
         <v>308</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>373</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>61</v>
@@ -20973,32 +21110,34 @@
         <v>308</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G152" s="9"/>
+      <c r="G152" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H152" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I152" s="11">
-        <v>22000</v>
+        <v>12530</v>
       </c>
       <c r="J152" s="12">
         <v>1</v>
       </c>
       <c r="K152" s="13">
-        <v>22000</v>
+        <v>12530</v>
       </c>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -21107,34 +21246,32 @@
         <v>308</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G153" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="G153" s="9"/>
       <c r="H153" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I153" s="11">
-        <v>12530</v>
+        <v>19910</v>
       </c>
       <c r="J153" s="12">
         <v>1</v>
       </c>
       <c r="K153" s="13">
-        <v>12530</v>
+        <v>19910</v>
       </c>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
@@ -21243,13 +21380,13 @@
         <v>308</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>61</v>
@@ -21377,13 +21514,13 @@
         <v>308</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>61</v>
@@ -21511,13 +21648,13 @@
         <v>308</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>61</v>
@@ -21645,19 +21782,19 @@
         <v>308</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>22</v>
+        <v>390</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9" t="s">
@@ -21779,13 +21916,13 @@
         <v>308</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>14</v>
@@ -21913,19 +22050,19 @@
         <v>308</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="9" t="s">
@@ -22047,13 +22184,13 @@
         <v>308</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>40</v>
@@ -22181,19 +22318,19 @@
         <v>308</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G161" s="9"/>
       <c r="H161" s="9" t="s">
@@ -22315,16 +22452,16 @@
         <v>308</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F162" s="9" t="s">
         <v>22</v>
@@ -22334,13 +22471,13 @@
         <v>17</v>
       </c>
       <c r="I162" s="11">
-        <v>19910</v>
+        <v>4620</v>
       </c>
       <c r="J162" s="12">
         <v>1</v>
       </c>
       <c r="K162" s="13">
-        <v>19910</v>
+        <v>4620</v>
       </c>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
@@ -22449,32 +22586,32 @@
         <v>308</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G163" s="9"/>
       <c r="H163" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="11">
-        <v>4620</v>
+        <v>12400</v>
       </c>
       <c r="J163" s="12">
         <v>1</v>
       </c>
       <c r="K163" s="13">
-        <v>4620</v>
+        <v>12400</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
@@ -22583,32 +22720,32 @@
         <v>308</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I164" s="11">
-        <v>12400</v>
+        <v>11010</v>
       </c>
       <c r="J164" s="12">
         <v>1</v>
       </c>
       <c r="K164" s="13">
-        <v>12400</v>
+        <v>11010</v>
       </c>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
@@ -22717,19 +22854,19 @@
         <v>308</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>342</v>
+        <v>107</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="9" t="s">
@@ -22851,19 +22988,19 @@
         <v>308</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>27</v>
+        <v>413</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="9" t="s">
@@ -22985,13 +23122,13 @@
         <v>308</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>412</v>
@@ -23119,21 +23256,23 @@
         <v>308</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="G168" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>418</v>
+      </c>
       <c r="H168" s="9" t="s">
         <v>17</v>
       </c>
@@ -23253,23 +23392,21 @@
         <v>308</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>418</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="G169" s="9"/>
       <c r="H169" s="9" t="s">
         <v>17</v>
       </c>
@@ -23389,19 +23526,19 @@
         <v>308</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9" t="s">
@@ -23523,19 +23660,19 @@
         <v>308</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>413</v>
+        <v>27</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="9" t="s">
@@ -23657,21 +23794,23 @@
         <v>308</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>418</v>
+      </c>
       <c r="H172" s="9" t="s">
         <v>17</v>
       </c>
@@ -23791,34 +23930,32 @@
         <v>308</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" s="9" t="s">
-        <v>418</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G173" s="9"/>
       <c r="H173" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I173" s="11">
-        <v>11010</v>
+        <v>12390</v>
       </c>
       <c r="J173" s="12">
         <v>1</v>
       </c>
       <c r="K173" s="13">
-        <v>11010</v>
+        <v>12390</v>
       </c>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -23927,19 +24064,19 @@
         <v>308</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>428</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>137</v>
+        <v>413</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174" s="9" t="s">
@@ -24061,32 +24198,32 @@
         <v>308</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>413</v>
+        <v>22</v>
       </c>
       <c r="G175" s="9"/>
       <c r="H175" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I175" s="11">
-        <v>12390</v>
+        <v>5800</v>
       </c>
       <c r="J175" s="12">
         <v>1</v>
       </c>
       <c r="K175" s="13">
-        <v>12390</v>
+        <v>5800</v>
       </c>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -24195,13 +24332,13 @@
         <v>308</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>76</v>
@@ -24214,13 +24351,13 @@
         <v>17</v>
       </c>
       <c r="I176" s="11">
-        <v>5800</v>
+        <v>13271</v>
       </c>
       <c r="J176" s="12">
         <v>1</v>
       </c>
       <c r="K176" s="13">
-        <v>5800</v>
+        <v>13271</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -24329,32 +24466,32 @@
         <v>308</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G177" s="9"/>
       <c r="H177" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I177" s="11">
-        <v>13271</v>
+        <v>11472.1</v>
       </c>
       <c r="J177" s="12">
         <v>1</v>
       </c>
       <c r="K177" s="13">
-        <v>13271</v>
+        <v>11472.1</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -24463,32 +24600,34 @@
         <v>308</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H178" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I178" s="11">
-        <v>11472.1</v>
+        <v>7979</v>
       </c>
       <c r="J178" s="12">
         <v>1</v>
       </c>
       <c r="K178" s="13">
-        <v>11472.1</v>
+        <v>7979</v>
       </c>
       <c r="L178" s="8"/>
       <c r="M178" s="8"/>
@@ -24597,13 +24736,13 @@
         <v>308</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>14</v>
@@ -24618,13 +24757,13 @@
         <v>17</v>
       </c>
       <c r="I179" s="11">
-        <v>7979</v>
+        <v>8740</v>
       </c>
       <c r="J179" s="12">
         <v>1</v>
       </c>
       <c r="K179" s="13">
-        <v>7979</v>
+        <v>8740</v>
       </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -24733,13 +24872,13 @@
         <v>308</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>14</v>
@@ -24754,13 +24893,13 @@
         <v>17</v>
       </c>
       <c r="I180" s="11">
-        <v>8740</v>
+        <v>7979</v>
       </c>
       <c r="J180" s="12">
         <v>1</v>
       </c>
       <c r="K180" s="13">
-        <v>8740</v>
+        <v>7979</v>
       </c>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
@@ -24869,23 +25008,21 @@
         <v>308</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>442</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G181" s="9"/>
       <c r="H181" s="9" t="s">
         <v>17</v>
       </c>
@@ -25005,13 +25142,13 @@
         <v>308</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>442</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>40</v>
@@ -25139,32 +25276,34 @@
         <v>308</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G183" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H183" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I183" s="11">
-        <v>7979</v>
+        <v>9150</v>
       </c>
       <c r="J183" s="12">
         <v>1</v>
       </c>
       <c r="K183" s="13">
-        <v>7979</v>
+        <v>9150</v>
       </c>
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
@@ -25273,23 +25412,21 @@
         <v>308</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>454</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G184" s="9"/>
       <c r="H184" s="9" t="s">
         <v>17</v>
       </c>
@@ -25409,21 +25546,23 @@
         <v>308</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>454</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G185" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H185" s="9" t="s">
         <v>17</v>
       </c>
@@ -25543,23 +25682,21 @@
         <v>308</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>454</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G186" s="9"/>
       <c r="H186" s="9" t="s">
         <v>17</v>
       </c>
@@ -25679,32 +25816,28 @@
         <v>308</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I187" s="11">
-        <v>9150</v>
+        <v>3212.93</v>
       </c>
       <c r="J187" s="12">
         <v>1</v>
       </c>
       <c r="K187" s="13">
-        <v>9150</v>
+        <v>3212.93</v>
       </c>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
@@ -25813,28 +25946,30 @@
         <v>308</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="E188" s="9"/>
+        <v>467</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I188" s="11">
-        <v>3212.93</v>
+        <v>56133</v>
       </c>
       <c r="J188" s="12">
         <v>1</v>
       </c>
       <c r="K188" s="13">
-        <v>3212.93</v>
+        <v>56133</v>
       </c>
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
@@ -25939,34 +26074,36 @@
       <c r="DO188" s="9"/>
     </row>
     <row r="189" spans="1:119">
-      <c r="A189" s="6">
-        <v>308</v>
+      <c r="A189" s="14">
+        <v>310</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F189" s="9"/>
+        <v>470</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I189" s="11">
-        <v>56133</v>
+        <v>400</v>
       </c>
       <c r="J189" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="K189" s="13">
-        <v>56133</v>
+        <v>24800</v>
       </c>
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
@@ -26070,24 +26207,158 @@
       <c r="DN189" s="9"/>
       <c r="DO189" s="9"/>
     </row>
+    <row r="190" spans="1:119">
+      <c r="A190" s="14">
+        <v>310</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I190" s="11">
+        <v>363.9</v>
+      </c>
+      <c r="J190" s="12">
+        <v>10</v>
+      </c>
+      <c r="K190" s="13">
+        <v>3639</v>
+      </c>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="N190" s="8"/>
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+      <c r="Q190" s="8"/>
+      <c r="R190" s="8"/>
+      <c r="S190" s="8"/>
+      <c r="T190" s="8"/>
+      <c r="U190" s="8"/>
+      <c r="V190" s="8"/>
+      <c r="W190" s="8"/>
+      <c r="X190" s="8"/>
+      <c r="Y190" s="8"/>
+      <c r="Z190" s="8"/>
+      <c r="AA190" s="8"/>
+      <c r="AB190" s="8"/>
+      <c r="AC190" s="8"/>
+      <c r="AD190" s="8"/>
+      <c r="AE190" s="8"/>
+      <c r="AF190" s="8"/>
+      <c r="AG190" s="8"/>
+      <c r="AI190" s="9"/>
+      <c r="AJ190" s="9"/>
+      <c r="AK190" s="9"/>
+      <c r="AL190" s="9"/>
+      <c r="AM190" s="9"/>
+      <c r="AN190" s="9"/>
+      <c r="AO190" s="9"/>
+      <c r="AP190" s="9"/>
+      <c r="AQ190" s="9"/>
+      <c r="AR190" s="9"/>
+      <c r="AS190" s="9"/>
+      <c r="AT190" s="9"/>
+      <c r="AU190" s="9"/>
+      <c r="AV190" s="9"/>
+      <c r="AX190" s="9"/>
+      <c r="AY190" s="9"/>
+      <c r="AZ190" s="9"/>
+      <c r="BA190" s="9"/>
+      <c r="BB190" s="9"/>
+      <c r="BC190" s="9"/>
+      <c r="BD190" s="9"/>
+      <c r="BE190" s="9"/>
+      <c r="BF190" s="9"/>
+      <c r="BH190" s="11"/>
+      <c r="BI190" s="11"/>
+      <c r="BJ190" s="11"/>
+      <c r="BK190" s="11"/>
+      <c r="BL190" s="11"/>
+      <c r="BM190" s="11"/>
+      <c r="BN190" s="11"/>
+      <c r="BO190" s="11"/>
+      <c r="BP190" s="11"/>
+      <c r="BQ190" s="11"/>
+      <c r="BR190" s="11"/>
+      <c r="BS190" s="11"/>
+      <c r="BT190" s="11"/>
+      <c r="BU190" s="11"/>
+      <c r="BW190" s="12"/>
+      <c r="BX190" s="12"/>
+      <c r="BY190" s="12"/>
+      <c r="BZ190" s="12"/>
+      <c r="CA190" s="12"/>
+      <c r="CB190" s="12"/>
+      <c r="CC190" s="12"/>
+      <c r="CD190" s="12"/>
+      <c r="CF190" s="13"/>
+      <c r="CG190" s="13"/>
+      <c r="CH190" s="13"/>
+      <c r="CI190" s="13"/>
+      <c r="CJ190" s="13"/>
+      <c r="CK190" s="13"/>
+      <c r="CL190" s="13"/>
+      <c r="CM190" s="13"/>
+      <c r="CN190" s="13"/>
+      <c r="CO190" s="13"/>
+      <c r="CP190" s="13"/>
+      <c r="CQ190" s="13"/>
+      <c r="CR190" s="13"/>
+      <c r="CS190" s="13"/>
+      <c r="CT190" s="13"/>
+      <c r="CU190" s="13"/>
+      <c r="CV190" s="13"/>
+      <c r="CW190" s="13"/>
+      <c r="CY190" s="9"/>
+      <c r="CZ190" s="9"/>
+      <c r="DA190" s="9"/>
+      <c r="DB190" s="9"/>
+      <c r="DC190" s="9"/>
+      <c r="DD190" s="9"/>
+      <c r="DE190" s="9"/>
+      <c r="DF190" s="9"/>
+      <c r="DH190" s="9"/>
+      <c r="DI190" s="9"/>
+      <c r="DJ190" s="9"/>
+      <c r="DK190" s="9"/>
+      <c r="DL190" s="9"/>
+      <c r="DM190" s="9"/>
+      <c r="DN190" s="9"/>
+      <c r="DO190" s="9"/>
+    </row>
     <row r="191" spans="1:119">
       <c r="A191" s="14">
         <v>310</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9" t="s">
@@ -26097,10 +26368,10 @@
         <v>400</v>
       </c>
       <c r="J191" s="12">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="K191" s="13">
-        <v>24800</v>
+        <v>4000</v>
       </c>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -26209,16 +26480,16 @@
         <v>310</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>22</v>
@@ -26228,13 +26499,13 @@
         <v>17</v>
       </c>
       <c r="I192" s="11">
-        <v>363.9</v>
+        <v>494</v>
       </c>
       <c r="J192" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K192" s="13">
-        <v>3639</v>
+        <v>1976</v>
       </c>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -26343,13 +26614,13 @@
         <v>310</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>40</v>
@@ -26362,13 +26633,13 @@
         <v>17</v>
       </c>
       <c r="I193" s="11">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="J193" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K193" s="13">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -26477,16 +26748,16 @@
         <v>310</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>22</v>
@@ -26496,13 +26767,13 @@
         <v>17</v>
       </c>
       <c r="I194" s="11">
-        <v>494</v>
+        <v>646</v>
       </c>
       <c r="J194" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K194" s="13">
-        <v>1976</v>
+        <v>1292</v>
       </c>
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
@@ -26611,17 +26882,15 @@
         <v>310</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="E195" s="9"/>
       <c r="F195" s="9" t="s">
         <v>27</v>
       </c>
@@ -26630,13 +26899,13 @@
         <v>17</v>
       </c>
       <c r="I195" s="11">
-        <v>220</v>
+        <v>5000</v>
       </c>
       <c r="J195" s="12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K195" s="13">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>
@@ -26745,16 +27014,16 @@
         <v>310</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>22</v>
@@ -26764,13 +27033,13 @@
         <v>17</v>
       </c>
       <c r="I196" s="11">
-        <v>646</v>
+        <v>430</v>
       </c>
       <c r="J196" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K196" s="13">
-        <v>1292</v>
+        <v>1720</v>
       </c>
       <c r="L196" s="8"/>
       <c r="M196" s="8"/>
@@ -26879,30 +27148,32 @@
         <v>310</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="E197" s="9"/>
+        <v>486</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="F197" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I197" s="11">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J197" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K197" s="13">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L197" s="8"/>
       <c r="M197" s="8"/>
@@ -27011,16 +27282,16 @@
         <v>310</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>14</v>
+        <v>489</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>22</v>
@@ -27030,13 +27301,13 @@
         <v>17</v>
       </c>
       <c r="I198" s="11">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="J198" s="12">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K198" s="13">
-        <v>1720</v>
+        <v>7500</v>
       </c>
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
@@ -27145,32 +27416,34 @@
         <v>310</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G199" s="9"/>
+      <c r="G199" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H199" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I199" s="11">
-        <v>1500</v>
+        <v>755</v>
       </c>
       <c r="J199" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K199" s="13">
-        <v>6000</v>
+        <v>4530</v>
       </c>
       <c r="L199" s="8"/>
       <c r="M199" s="8"/>
@@ -27279,32 +27552,32 @@
         <v>310</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>22</v>
+        <v>495</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I200" s="11">
-        <v>500</v>
+        <v>708.5</v>
       </c>
       <c r="J200" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K200" s="13">
-        <v>7500</v>
+        <v>1417</v>
       </c>
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>
@@ -27413,34 +27686,28 @@
         <v>310</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F201" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
       <c r="H201" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I201" s="11">
-        <v>755</v>
+        <v>737.5</v>
       </c>
       <c r="J201" s="12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K201" s="13">
-        <v>4530</v>
+        <v>8850</v>
       </c>
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
@@ -27549,32 +27816,34 @@
         <v>310</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>494</v>
+        <v>14</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G202" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H202" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I202" s="11">
-        <v>708.5</v>
+        <v>1165</v>
       </c>
       <c r="J202" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K202" s="13">
-        <v>1417</v>
+        <v>1165</v>
       </c>
       <c r="L202" s="8"/>
       <c r="M202" s="8"/>
@@ -27683,28 +27952,32 @@
         <v>310</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="E203" s="9"/>
-      <c r="F203" s="9"/>
+        <v>472</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="11">
-        <v>737.5</v>
+        <v>448.5</v>
       </c>
       <c r="J203" s="12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K203" s="13">
-        <v>8850</v>
+        <v>897</v>
       </c>
       <c r="L203" s="8"/>
       <c r="M203" s="8"/>
@@ -27813,13 +28086,13 @@
         <v>310</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>14</v>
@@ -27827,20 +28100,18 @@
       <c r="F204" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G204" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="G204" s="9"/>
       <c r="H204" s="9" t="s">
-        <v>17</v>
+        <v>502</v>
       </c>
       <c r="I204" s="11">
-        <v>1165</v>
+        <v>2015</v>
       </c>
       <c r="J204" s="12">
         <v>1</v>
       </c>
       <c r="K204" s="13">
-        <v>1165</v>
+        <v>2015</v>
       </c>
       <c r="L204" s="8"/>
       <c r="M204" s="8"/>
@@ -27949,16 +28220,16 @@
         <v>310</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F205" s="9" t="s">
         <v>22</v>
@@ -27968,13 +28239,13 @@
         <v>17</v>
       </c>
       <c r="I205" s="11">
-        <v>448.5</v>
+        <v>3090</v>
       </c>
       <c r="J205" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K205" s="13">
-        <v>897</v>
+        <v>9270</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="8"/>
@@ -28083,32 +28354,30 @@
         <v>310</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>70</v>
+        <v>505</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="E206" s="9"/>
       <c r="F206" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="I206" s="11">
-        <v>2015</v>
+        <v>581</v>
       </c>
       <c r="J206" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K206" s="13">
-        <v>2015</v>
+        <v>1162</v>
       </c>
       <c r="L206" s="8"/>
       <c r="M206" s="8"/>
@@ -28212,273 +28481,10 @@
       <c r="DN206" s="9"/>
       <c r="DO206" s="9"/>
     </row>
-    <row r="207" spans="1:119">
-      <c r="A207" s="14">
-        <v>310</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" s="9"/>
-      <c r="H207" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I207" s="11">
-        <v>3090</v>
-      </c>
-      <c r="J207" s="12">
-        <v>3</v>
-      </c>
-      <c r="K207" s="13">
-        <v>9270</v>
-      </c>
-      <c r="L207" s="8"/>
-      <c r="M207" s="8"/>
-      <c r="N207" s="8"/>
-      <c r="O207" s="8"/>
-      <c r="P207" s="8"/>
-      <c r="Q207" s="8"/>
-      <c r="R207" s="8"/>
-      <c r="S207" s="8"/>
-      <c r="T207" s="8"/>
-      <c r="U207" s="8"/>
-      <c r="V207" s="8"/>
-      <c r="W207" s="8"/>
-      <c r="X207" s="8"/>
-      <c r="Y207" s="8"/>
-      <c r="Z207" s="8"/>
-      <c r="AA207" s="8"/>
-      <c r="AB207" s="8"/>
-      <c r="AC207" s="8"/>
-      <c r="AD207" s="8"/>
-      <c r="AE207" s="8"/>
-      <c r="AF207" s="8"/>
-      <c r="AG207" s="8"/>
-      <c r="AI207" s="9"/>
-      <c r="AJ207" s="9"/>
-      <c r="AK207" s="9"/>
-      <c r="AL207" s="9"/>
-      <c r="AM207" s="9"/>
-      <c r="AN207" s="9"/>
-      <c r="AO207" s="9"/>
-      <c r="AP207" s="9"/>
-      <c r="AQ207" s="9"/>
-      <c r="AR207" s="9"/>
-      <c r="AS207" s="9"/>
-      <c r="AT207" s="9"/>
-      <c r="AU207" s="9"/>
-      <c r="AV207" s="9"/>
-      <c r="AX207" s="9"/>
-      <c r="AY207" s="9"/>
-      <c r="AZ207" s="9"/>
-      <c r="BA207" s="9"/>
-      <c r="BB207" s="9"/>
-      <c r="BC207" s="9"/>
-      <c r="BD207" s="9"/>
-      <c r="BE207" s="9"/>
-      <c r="BF207" s="9"/>
-      <c r="BH207" s="11"/>
-      <c r="BI207" s="11"/>
-      <c r="BJ207" s="11"/>
-      <c r="BK207" s="11"/>
-      <c r="BL207" s="11"/>
-      <c r="BM207" s="11"/>
-      <c r="BN207" s="11"/>
-      <c r="BO207" s="11"/>
-      <c r="BP207" s="11"/>
-      <c r="BQ207" s="11"/>
-      <c r="BR207" s="11"/>
-      <c r="BS207" s="11"/>
-      <c r="BT207" s="11"/>
-      <c r="BU207" s="11"/>
-      <c r="BW207" s="12"/>
-      <c r="BX207" s="12"/>
-      <c r="BY207" s="12"/>
-      <c r="BZ207" s="12"/>
-      <c r="CA207" s="12"/>
-      <c r="CB207" s="12"/>
-      <c r="CC207" s="12"/>
-      <c r="CD207" s="12"/>
-      <c r="CF207" s="13"/>
-      <c r="CG207" s="13"/>
-      <c r="CH207" s="13"/>
-      <c r="CI207" s="13"/>
-      <c r="CJ207" s="13"/>
-      <c r="CK207" s="13"/>
-      <c r="CL207" s="13"/>
-      <c r="CM207" s="13"/>
-      <c r="CN207" s="13"/>
-      <c r="CO207" s="13"/>
-      <c r="CP207" s="13"/>
-      <c r="CQ207" s="13"/>
-      <c r="CR207" s="13"/>
-      <c r="CS207" s="13"/>
-      <c r="CT207" s="13"/>
-      <c r="CU207" s="13"/>
-      <c r="CV207" s="13"/>
-      <c r="CW207" s="13"/>
-      <c r="CY207" s="9"/>
-      <c r="CZ207" s="9"/>
-      <c r="DA207" s="9"/>
-      <c r="DB207" s="9"/>
-      <c r="DC207" s="9"/>
-      <c r="DD207" s="9"/>
-      <c r="DE207" s="9"/>
-      <c r="DF207" s="9"/>
-      <c r="DH207" s="9"/>
-      <c r="DI207" s="9"/>
-      <c r="DJ207" s="9"/>
-      <c r="DK207" s="9"/>
-      <c r="DL207" s="9"/>
-      <c r="DM207" s="9"/>
-      <c r="DN207" s="9"/>
-      <c r="DO207" s="9"/>
-    </row>
-    <row r="208" spans="1:119">
-      <c r="A208" s="14">
-        <v>310</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G208" s="9"/>
-      <c r="H208" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="I208" s="11">
-        <v>581</v>
-      </c>
-      <c r="J208" s="12">
-        <v>2</v>
-      </c>
-      <c r="K208" s="13">
-        <v>1162</v>
-      </c>
-      <c r="L208" s="8"/>
-      <c r="M208" s="8"/>
-      <c r="N208" s="8"/>
-      <c r="O208" s="8"/>
-      <c r="P208" s="8"/>
-      <c r="Q208" s="8"/>
-      <c r="R208" s="8"/>
-      <c r="S208" s="8"/>
-      <c r="T208" s="8"/>
-      <c r="U208" s="8"/>
-      <c r="V208" s="8"/>
-      <c r="W208" s="8"/>
-      <c r="X208" s="8"/>
-      <c r="Y208" s="8"/>
-      <c r="Z208" s="8"/>
-      <c r="AA208" s="8"/>
-      <c r="AB208" s="8"/>
-      <c r="AC208" s="8"/>
-      <c r="AD208" s="8"/>
-      <c r="AE208" s="8"/>
-      <c r="AF208" s="8"/>
-      <c r="AG208" s="8"/>
-      <c r="AI208" s="9"/>
-      <c r="AJ208" s="9"/>
-      <c r="AK208" s="9"/>
-      <c r="AL208" s="9"/>
-      <c r="AM208" s="9"/>
-      <c r="AN208" s="9"/>
-      <c r="AO208" s="9"/>
-      <c r="AP208" s="9"/>
-      <c r="AQ208" s="9"/>
-      <c r="AR208" s="9"/>
-      <c r="AS208" s="9"/>
-      <c r="AT208" s="9"/>
-      <c r="AU208" s="9"/>
-      <c r="AV208" s="9"/>
-      <c r="AX208" s="9"/>
-      <c r="AY208" s="9"/>
-      <c r="AZ208" s="9"/>
-      <c r="BA208" s="9"/>
-      <c r="BB208" s="9"/>
-      <c r="BC208" s="9"/>
-      <c r="BD208" s="9"/>
-      <c r="BE208" s="9"/>
-      <c r="BF208" s="9"/>
-      <c r="BH208" s="11"/>
-      <c r="BI208" s="11"/>
-      <c r="BJ208" s="11"/>
-      <c r="BK208" s="11"/>
-      <c r="BL208" s="11"/>
-      <c r="BM208" s="11"/>
-      <c r="BN208" s="11"/>
-      <c r="BO208" s="11"/>
-      <c r="BP208" s="11"/>
-      <c r="BQ208" s="11"/>
-      <c r="BR208" s="11"/>
-      <c r="BS208" s="11"/>
-      <c r="BT208" s="11"/>
-      <c r="BU208" s="11"/>
-      <c r="BW208" s="12"/>
-      <c r="BX208" s="12"/>
-      <c r="BY208" s="12"/>
-      <c r="BZ208" s="12"/>
-      <c r="CA208" s="12"/>
-      <c r="CB208" s="12"/>
-      <c r="CC208" s="12"/>
-      <c r="CD208" s="12"/>
-      <c r="CF208" s="13"/>
-      <c r="CG208" s="13"/>
-      <c r="CH208" s="13"/>
-      <c r="CI208" s="13"/>
-      <c r="CJ208" s="13"/>
-      <c r="CK208" s="13"/>
-      <c r="CL208" s="13"/>
-      <c r="CM208" s="13"/>
-      <c r="CN208" s="13"/>
-      <c r="CO208" s="13"/>
-      <c r="CP208" s="13"/>
-      <c r="CQ208" s="13"/>
-      <c r="CR208" s="13"/>
-      <c r="CS208" s="13"/>
-      <c r="CT208" s="13"/>
-      <c r="CU208" s="13"/>
-      <c r="CV208" s="13"/>
-      <c r="CW208" s="13"/>
-      <c r="CY208" s="9"/>
-      <c r="CZ208" s="9"/>
-      <c r="DA208" s="9"/>
-      <c r="DB208" s="9"/>
-      <c r="DC208" s="9"/>
-      <c r="DD208" s="9"/>
-      <c r="DE208" s="9"/>
-      <c r="DF208" s="9"/>
-      <c r="DH208" s="9"/>
-      <c r="DI208" s="9"/>
-      <c r="DJ208" s="9"/>
-      <c r="DK208" s="9"/>
-      <c r="DL208" s="9"/>
-      <c r="DM208" s="9"/>
-      <c r="DN208" s="9"/>
-      <c r="DO208" s="9"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K206">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
+++ b/Matuchet/Инвентаризация 2021/База оборудования на учете 2021.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Lab-processings\Matuchet\Инвентаризация 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Все оборудование" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Все оборудование'!$A$1:$K$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Опись по кабинетам'!$A$1:$E$206</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1702,17 +1708,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#\ ##0.00###"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="#\ ##0.0##"/>
-    <numFmt numFmtId="182" formatCode="#\ ##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="#\ ##0.00###"/>
+    <numFmt numFmtId="169" formatCode="#\ ##0.0##"/>
+    <numFmt numFmtId="170" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1725,346 +1727,16 @@
       <name val="Arial"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2087,251 +1759,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2369,74 +1799,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2694,27 +2080,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8518518518519" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.85185185185185" style="6"/>
-    <col min="3" max="3" width="45.712962962963" style="6" customWidth="1"/>
-    <col min="4" max="7" width="17.712962962963" style="6" customWidth="1"/>
-    <col min="8" max="9" width="8.85185185185185" style="6"/>
-    <col min="10" max="10" width="11.8518518518519" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85185185185185" style="6"/>
+    <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="45.7109375" style="6" customWidth="1"/>
+    <col min="4" max="7" width="17.7109375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="6"/>
+    <col min="10" max="10" width="11.85546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3261,7 +2647,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:115">
       <c r="A17" s="6">
         <v>309</v>
       </c>
@@ -3296,7 +2682,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:115">
       <c r="A18" s="6">
         <v>309</v>
       </c>
@@ -3331,7 +2717,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="19" ht="30.6" spans="1:115">
+    <row r="19" spans="1:115" ht="33.75">
       <c r="A19" s="6">
         <v>308</v>
       </c>
@@ -4135,13 +3521,13 @@
         <v>17</v>
       </c>
       <c r="I25" s="11">
-        <v>51391.84</v>
+        <v>51391.839999999997</v>
       </c>
       <c r="J25" s="12">
         <v>1</v>
       </c>
       <c r="K25" s="13">
-        <v>51391.84</v>
+        <v>51391.839999999997</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -5155,7 +4541,7 @@
       <c r="DJ32" s="9"/>
       <c r="DK32" s="9"/>
     </row>
-    <row r="33" spans="1:115">
+    <row r="33" spans="1:119">
       <c r="A33" s="6">
         <v>308</v>
       </c>
@@ -5285,7 +4671,7 @@
       <c r="DJ33" s="9"/>
       <c r="DK33" s="9"/>
     </row>
-    <row r="34" spans="1:115">
+    <row r="34" spans="1:119">
       <c r="A34" s="6">
         <v>308</v>
       </c>
@@ -5415,7 +4801,7 @@
       <c r="DJ34" s="9"/>
       <c r="DK34" s="9"/>
     </row>
-    <row r="35" spans="1:115">
+    <row r="35" spans="1:119">
       <c r="A35" s="6">
         <v>308</v>
       </c>
@@ -5545,7 +4931,7 @@
       <c r="DJ35" s="9"/>
       <c r="DK35" s="9"/>
     </row>
-    <row r="36" spans="1:115">
+    <row r="36" spans="1:119">
       <c r="A36" s="6">
         <v>308</v>
       </c>
@@ -14011,13 +13397,13 @@
         <v>17</v>
       </c>
       <c r="I99" s="11">
-        <v>4347.15</v>
+        <v>4347.1499999999996</v>
       </c>
       <c r="J99" s="12">
         <v>1</v>
       </c>
       <c r="K99" s="13">
-        <v>4347.15</v>
+        <v>4347.1499999999996</v>
       </c>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
@@ -14145,13 +13531,13 @@
         <v>17</v>
       </c>
       <c r="I100" s="11">
-        <v>36622.08</v>
+        <v>36622.080000000002</v>
       </c>
       <c r="J100" s="12">
         <v>1</v>
       </c>
       <c r="K100" s="13">
-        <v>36622.08</v>
+        <v>36622.080000000002</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -18973,13 +18359,13 @@
         <v>17</v>
       </c>
       <c r="I136" s="11">
-        <v>17408.49</v>
+        <v>17408.490000000002</v>
       </c>
       <c r="J136" s="12">
         <v>1</v>
       </c>
       <c r="K136" s="13">
-        <v>17408.49</v>
+        <v>17408.490000000002</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
@@ -28482,29 +27868,26 @@
       <c r="DO206" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K206">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:K206"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="41.4259259259259" customWidth="1"/>
-    <col min="4" max="4" width="13.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -28525,7 +27908,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="1">
         <v>308</v>
       </c>
@@ -28543,7 +27926,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1">
         <v>308</v>
       </c>
@@ -28579,7 +27962,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="1">
         <v>308</v>
       </c>
@@ -28597,7 +27980,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="1">
         <v>308</v>
       </c>
@@ -28615,7 +27998,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="1">
         <v>308</v>
       </c>
@@ -28633,7 +28016,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1">
         <v>308</v>
       </c>
@@ -28651,7 +28034,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="1">
         <v>308</v>
       </c>
@@ -28669,7 +28052,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -28687,7 +28070,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="1">
         <v>308</v>
       </c>
@@ -28705,7 +28088,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="1">
         <v>309</v>
       </c>
@@ -28723,7 +28106,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="1">
         <v>308</v>
       </c>
@@ -28741,7 +28124,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1">
         <v>308</v>
       </c>
@@ -28759,7 +28142,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="1">
         <v>308</v>
       </c>
@@ -28777,7 +28160,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="1">
         <v>308</v>
       </c>
@@ -28795,7 +28178,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="1">
         <v>308</v>
       </c>
@@ -28813,7 +28196,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="1">
         <v>308</v>
       </c>
@@ -28831,7 +28214,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="1">
         <v>308</v>
       </c>
@@ -28849,7 +28232,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1">
         <v>308</v>
       </c>
@@ -28867,7 +28250,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="1">
         <v>308</v>
       </c>
@@ -28885,7 +28268,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="1">
         <v>308</v>
       </c>
@@ -28903,7 +28286,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="1">
         <v>308</v>
       </c>
@@ -28921,7 +28304,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="1">
         <v>308</v>
       </c>
@@ -28939,7 +28322,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="1">
         <v>308</v>
       </c>
@@ -28957,7 +28340,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="1">
         <v>308</v>
       </c>
@@ -28975,7 +28358,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="1">
         <v>308</v>
       </c>
@@ -28993,7 +28376,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="1">
         <v>308</v>
       </c>
@@ -29011,7 +28394,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="1">
         <v>308</v>
       </c>
@@ -29029,7 +28412,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="1">
         <v>308</v>
       </c>
@@ -29047,7 +28430,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1">
         <v>308</v>
       </c>
@@ -29065,7 +28448,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="1">
         <v>308</v>
       </c>
@@ -29083,7 +28466,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="1">
         <v>308</v>
       </c>
@@ -29101,7 +28484,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="1">
         <v>308</v>
       </c>
@@ -29119,7 +28502,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="1">
         <v>308</v>
       </c>
@@ -29137,7 +28520,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="1">
         <v>308</v>
       </c>
@@ -29155,7 +28538,7 @@
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="1">
         <v>308</v>
       </c>
@@ -29173,7 +28556,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="1">
         <v>308</v>
       </c>
@@ -29191,7 +28574,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="1">
         <v>308</v>
       </c>
@@ -29209,7 +28592,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="1">
         <v>308</v>
       </c>
@@ -29227,7 +28610,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="1">
         <v>308</v>
       </c>
@@ -29245,7 +28628,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="1">
         <v>308</v>
       </c>
@@ -29263,7 +28646,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="1">
         <v>308</v>
       </c>
@@ -29281,7 +28664,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="1">
         <v>308</v>
       </c>
@@ -29299,7 +28682,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" s="1">
         <v>308</v>
       </c>
@@ -29317,7 +28700,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="1">
         <v>308</v>
       </c>
@@ -29335,7 +28718,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="1">
         <v>308</v>
       </c>
@@ -29353,7 +28736,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" s="1">
         <v>308</v>
       </c>
@@ -29371,7 +28754,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="1">
         <v>308</v>
       </c>
@@ -29389,7 +28772,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="1">
         <v>308</v>
       </c>
@@ -29407,7 +28790,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="1">
         <v>308</v>
       </c>
@@ -29425,7 +28808,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="1">
         <v>308</v>
       </c>
@@ -29443,7 +28826,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="1">
         <v>308</v>
       </c>
@@ -29461,7 +28844,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="1">
         <v>308</v>
       </c>
@@ -29479,7 +28862,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="1">
         <v>308</v>
       </c>
@@ -29497,7 +28880,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="1">
         <v>308</v>
       </c>
@@ -29515,7 +28898,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="1">
         <v>308</v>
       </c>
@@ -29533,7 +28916,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="1">
         <v>308</v>
       </c>
@@ -29551,7 +28934,7 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="1">
         <v>308</v>
       </c>
@@ -29569,7 +28952,7 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="1">
         <v>308</v>
       </c>
@@ -29587,7 +28970,7 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="1">
         <v>308</v>
       </c>
@@ -29605,7 +28988,7 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="1">
         <v>308</v>
       </c>
@@ -29623,7 +29006,7 @@
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="1">
         <v>308</v>
       </c>
@@ -29641,7 +29024,7 @@
       </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="1">
         <v>308</v>
       </c>
@@ -29659,7 +29042,7 @@
       </c>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" s="1">
         <v>308</v>
       </c>
@@ -29677,7 +29060,7 @@
       </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" s="1">
         <v>308</v>
       </c>
@@ -29695,7 +29078,7 @@
       </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="1">
         <v>308</v>
       </c>
@@ -29713,7 +29096,7 @@
       </c>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="1">
         <v>308</v>
       </c>
@@ -29731,7 +29114,7 @@
       </c>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" s="1">
         <v>308</v>
       </c>
@@ -29749,7 +29132,7 @@
       </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="1">
         <v>308</v>
       </c>
@@ -29767,7 +29150,7 @@
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" s="1">
         <v>308</v>
       </c>
@@ -29803,7 +29186,7 @@
       </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="1">
         <v>308</v>
       </c>
@@ -29857,7 +29240,7 @@
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="1">
         <v>308</v>
       </c>
@@ -29875,7 +29258,7 @@
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" s="1">
         <v>309</v>
       </c>
@@ -29893,7 +29276,7 @@
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="1">
         <v>309</v>
       </c>
@@ -29911,7 +29294,7 @@
       </c>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="1">
         <v>308</v>
       </c>
@@ -29929,7 +29312,7 @@
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="1">
         <v>308</v>
       </c>
@@ -29947,7 +29330,7 @@
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="1">
         <v>308</v>
       </c>
@@ -29965,7 +29348,7 @@
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="1">
         <v>308</v>
       </c>
@@ -29983,7 +29366,7 @@
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="1">
         <v>308</v>
       </c>
@@ -30001,7 +29384,7 @@
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="1">
         <v>308</v>
       </c>
@@ -30019,7 +29402,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="1">
         <v>308</v>
       </c>
@@ -30037,7 +29420,7 @@
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="1">
         <v>308</v>
       </c>
@@ -30055,7 +29438,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" s="1">
         <v>308</v>
       </c>
@@ -30073,7 +29456,7 @@
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="1">
         <v>308</v>
       </c>
@@ -30091,7 +29474,7 @@
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="1">
         <v>308</v>
       </c>
@@ -30109,7 +29492,7 @@
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="1">
         <v>308</v>
       </c>
@@ -30127,7 +29510,7 @@
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="1">
         <v>308</v>
       </c>
@@ -30163,7 +29546,7 @@
       </c>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="1">
         <v>308</v>
       </c>
@@ -30181,7 +29564,7 @@
       </c>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="1">
         <v>308</v>
       </c>
@@ -30199,7 +29582,7 @@
       </c>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="5">
         <v>310</v>
       </c>
@@ -30217,7 +29600,7 @@
       </c>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="5">
         <v>310</v>
       </c>
@@ -30271,7 +29654,7 @@
       </c>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" s="1">
         <v>309</v>
       </c>
@@ -30289,7 +29672,7 @@
       </c>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" s="1">
         <v>308</v>
       </c>
@@ -30307,7 +29690,7 @@
       </c>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" s="1">
         <v>308</v>
       </c>
@@ -30325,7 +29708,7 @@
       </c>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="1">
         <v>308</v>
       </c>
@@ -30343,7 +29726,7 @@
       </c>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" s="1">
         <v>308</v>
       </c>
@@ -30361,7 +29744,7 @@
       </c>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="1">
         <v>308</v>
       </c>
@@ -30379,7 +29762,7 @@
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" s="1">
         <v>308</v>
       </c>
@@ -30397,7 +29780,7 @@
       </c>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="1">
         <v>308</v>
       </c>
@@ -30415,7 +29798,7 @@
       </c>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" s="1">
         <v>308</v>
       </c>
@@ -30433,7 +29816,7 @@
       </c>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="1">
         <v>308</v>
       </c>
@@ -30451,7 +29834,7 @@
       </c>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="1">
         <v>308</v>
       </c>
@@ -30469,7 +29852,7 @@
       </c>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="1">
         <v>308</v>
       </c>
@@ -30487,7 +29870,7 @@
       </c>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="1">
         <v>308</v>
       </c>
@@ -30505,7 +29888,7 @@
       </c>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" s="1">
         <v>308</v>
       </c>
@@ -30523,7 +29906,7 @@
       </c>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="1">
         <v>308</v>
       </c>
@@ -30541,7 +29924,7 @@
       </c>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="1">
         <v>308</v>
       </c>
@@ -30559,7 +29942,7 @@
       </c>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="5">
         <v>310</v>
       </c>
@@ -30577,7 +29960,7 @@
       </c>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="5">
         <v>310</v>
       </c>
@@ -30595,7 +29978,7 @@
       </c>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="5">
         <v>310</v>
       </c>
@@ -30613,7 +29996,7 @@
       </c>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="5">
         <v>310</v>
       </c>
@@ -30631,7 +30014,7 @@
       </c>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="5">
         <v>310</v>
       </c>
@@ -30649,7 +30032,7 @@
       </c>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="1">
         <v>309</v>
       </c>
@@ -30667,7 +30050,7 @@
       </c>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="1">
         <v>308</v>
       </c>
@@ -30685,7 +30068,7 @@
       </c>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="1">
         <v>308</v>
       </c>
@@ -30703,7 +30086,7 @@
       </c>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="1">
         <v>308</v>
       </c>
@@ -30721,7 +30104,7 @@
       </c>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="1">
         <v>308</v>
       </c>
@@ -30739,7 +30122,7 @@
       </c>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="1">
         <v>308</v>
       </c>
@@ -30757,7 +30140,7 @@
       </c>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="1">
         <v>308</v>
       </c>
@@ -30775,7 +30158,7 @@
       </c>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="1">
         <v>308</v>
       </c>
@@ -30793,7 +30176,7 @@
       </c>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="1">
         <v>308</v>
       </c>
@@ -30811,7 +30194,7 @@
       </c>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="1">
         <v>308</v>
       </c>
@@ -30829,7 +30212,7 @@
       </c>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="1">
         <v>308</v>
       </c>
@@ -30847,7 +30230,7 @@
       </c>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="1">
         <v>308</v>
       </c>
@@ -30865,7 +30248,7 @@
       </c>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="1">
         <v>308</v>
       </c>
@@ -30883,7 +30266,7 @@
       </c>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" s="1">
         <v>308</v>
       </c>
@@ -30901,7 +30284,7 @@
       </c>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" s="1">
         <v>308</v>
       </c>
@@ -30919,7 +30302,7 @@
       </c>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="1">
         <v>308</v>
       </c>
@@ -30937,7 +30320,7 @@
       </c>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" s="1">
         <v>308</v>
       </c>
@@ -30955,7 +30338,7 @@
       </c>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="1">
         <v>308</v>
       </c>
@@ -30973,7 +30356,7 @@
       </c>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" s="1">
         <v>308</v>
       </c>
@@ -30991,7 +30374,7 @@
       </c>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" s="1">
         <v>308</v>
       </c>
@@ -31009,7 +30392,7 @@
       </c>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" s="1">
         <v>308</v>
       </c>
@@ -31027,7 +30410,7 @@
       </c>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" s="1">
         <v>308</v>
       </c>
@@ -31045,7 +30428,7 @@
       </c>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" s="1">
         <v>309</v>
       </c>
@@ -31063,7 +30446,7 @@
       </c>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" s="1">
         <v>308</v>
       </c>
@@ -31081,7 +30464,7 @@
       </c>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" s="1">
         <v>308</v>
       </c>
@@ -31099,7 +30482,7 @@
       </c>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" s="1">
         <v>308</v>
       </c>
@@ -31117,7 +30500,7 @@
       </c>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="1">
         <v>308</v>
       </c>
@@ -31135,7 +30518,7 @@
       </c>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" s="1">
         <v>308</v>
       </c>
@@ -31153,7 +30536,7 @@
       </c>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" s="1">
         <v>308</v>
       </c>
@@ -31171,7 +30554,7 @@
       </c>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" s="1">
         <v>308</v>
       </c>
@@ -31189,7 +30572,7 @@
       </c>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" s="1">
         <v>308</v>
       </c>
@@ -31207,7 +30590,7 @@
       </c>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" s="1">
         <v>308</v>
       </c>
@@ -31225,7 +30608,7 @@
       </c>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" s="5">
         <v>310</v>
       </c>
@@ -31243,7 +30626,7 @@
       </c>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" s="5">
         <v>310</v>
       </c>
@@ -31261,7 +30644,7 @@
       </c>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" s="5">
         <v>310</v>
       </c>
@@ -31279,7 +30662,7 @@
       </c>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" s="1">
         <v>309</v>
       </c>
@@ -31297,7 +30680,7 @@
       </c>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" s="1">
         <v>309</v>
       </c>
@@ -31315,7 +30698,7 @@
       </c>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" s="1">
         <v>309</v>
       </c>
@@ -31333,7 +30716,7 @@
       </c>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" s="1">
         <v>309</v>
       </c>
@@ -31351,7 +30734,7 @@
       </c>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" s="1">
         <v>309</v>
       </c>
@@ -31369,7 +30752,7 @@
       </c>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" s="1">
         <v>309</v>
       </c>
@@ -31387,7 +30770,7 @@
       </c>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" s="1">
         <v>309</v>
       </c>
@@ -31405,7 +30788,7 @@
       </c>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" s="1">
         <v>309</v>
       </c>
@@ -31423,7 +30806,7 @@
       </c>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" s="1">
         <v>309</v>
       </c>
@@ -31441,7 +30824,7 @@
       </c>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164" s="1">
         <v>309</v>
       </c>
@@ -31459,7 +30842,7 @@
       </c>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165" s="1">
         <v>308</v>
       </c>
@@ -31477,7 +30860,7 @@
       </c>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" s="1">
         <v>308</v>
       </c>
@@ -31495,7 +30878,7 @@
       </c>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167" s="1">
         <v>308</v>
       </c>
@@ -31513,7 +30896,7 @@
       </c>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168" s="1">
         <v>308</v>
       </c>
@@ -31531,7 +30914,7 @@
       </c>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" s="1">
         <v>308</v>
       </c>
@@ -31549,7 +30932,7 @@
       </c>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170" s="1">
         <v>308</v>
       </c>
@@ -31567,7 +30950,7 @@
       </c>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171" s="1">
         <v>308</v>
       </c>
@@ -31585,7 +30968,7 @@
       </c>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172" s="1">
         <v>308</v>
       </c>
@@ -31603,7 +30986,7 @@
       </c>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173" s="1">
         <v>308</v>
       </c>
@@ -31621,7 +31004,7 @@
       </c>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174" s="1">
         <v>308</v>
       </c>
@@ -31639,7 +31022,7 @@
       </c>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175" s="1">
         <v>308</v>
       </c>
@@ -31657,7 +31040,7 @@
       </c>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176" s="1">
         <v>308</v>
       </c>
@@ -31675,7 +31058,7 @@
       </c>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" s="1">
         <v>308</v>
       </c>
@@ -31693,7 +31076,7 @@
       </c>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" s="1">
         <v>308</v>
       </c>
@@ -31711,7 +31094,7 @@
       </c>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" s="1">
         <v>308</v>
       </c>
@@ -31729,7 +31112,7 @@
       </c>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" s="1">
         <v>308</v>
       </c>
@@ -31747,7 +31130,7 @@
       </c>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" s="1">
         <v>308</v>
       </c>
@@ -31765,7 +31148,7 @@
       </c>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182" s="1">
         <v>308</v>
       </c>
@@ -31783,7 +31166,7 @@
       </c>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" hidden="1">
       <c r="A183" s="1">
         <v>308</v>
       </c>
@@ -31801,7 +31184,7 @@
       </c>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" hidden="1">
       <c r="A184" s="1">
         <v>308</v>
       </c>
@@ -31819,7 +31202,7 @@
       </c>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" hidden="1">
       <c r="A185" s="1">
         <v>308</v>
       </c>
@@ -31837,7 +31220,7 @@
       </c>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" hidden="1">
       <c r="A186" s="1">
         <v>308</v>
       </c>
@@ -31855,7 +31238,7 @@
       </c>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187" s="1">
         <v>308</v>
       </c>
@@ -31873,7 +31256,7 @@
       </c>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188" s="1">
         <v>308</v>
       </c>
@@ -31891,7 +31274,7 @@
       </c>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189" s="1">
         <v>308</v>
       </c>
@@ -31909,7 +31292,7 @@
       </c>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" hidden="1">
       <c r="A190" s="5">
         <v>310</v>
       </c>
@@ -31927,7 +31310,7 @@
       </c>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191" s="5">
         <v>310</v>
       </c>
@@ -31945,7 +31328,7 @@
       </c>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192" s="5">
         <v>310</v>
       </c>
@@ -31963,7 +31346,7 @@
       </c>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" hidden="1">
       <c r="A193" s="5">
         <v>310</v>
       </c>
@@ -31981,7 +31364,7 @@
       </c>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" hidden="1">
       <c r="A194" s="5">
         <v>310</v>
       </c>
@@ -31999,7 +31382,7 @@
       </c>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" hidden="1">
       <c r="A195" s="5">
         <v>310</v>
       </c>
@@ -32017,7 +31400,7 @@
       </c>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" hidden="1">
       <c r="A196" s="5">
         <v>310</v>
       </c>
@@ -32035,7 +31418,7 @@
       </c>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" hidden="1">
       <c r="A197" s="5">
         <v>310</v>
       </c>
@@ -32053,7 +31436,7 @@
       </c>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" hidden="1">
       <c r="A198" s="1">
         <v>308</v>
       </c>
@@ -32071,7 +31454,7 @@
       </c>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" hidden="1">
       <c r="A199" s="1">
         <v>308</v>
       </c>
@@ -32089,7 +31472,7 @@
       </c>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" hidden="1">
       <c r="A200" s="1">
         <v>309</v>
       </c>
@@ -32107,7 +31490,7 @@
       </c>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" hidden="1">
       <c r="A201" s="1">
         <v>308</v>
       </c>
@@ -32125,7 +31508,7 @@
       </c>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" hidden="1">
       <c r="A202" s="1">
         <v>308</v>
       </c>
@@ -32143,7 +31526,7 @@
       </c>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" hidden="1">
       <c r="A203" s="1">
         <v>308</v>
       </c>
@@ -32179,7 +31562,7 @@
       </c>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" hidden="1">
       <c r="A205" s="1">
         <v>308</v>
       </c>
@@ -32232,11 +31615,25 @@
       <c r="F208" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E206">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="10136-11378"/>
+        <filter val="10136-11380"/>
+        <filter val="10136-11381"/>
+        <filter val="10136-11382"/>
+        <filter val="10136-11383"/>
+        <filter val="10136-11387"/>
+        <filter val="10136-11388"/>
+        <filter val="10136-11389"/>
+        <filter val="10136-11801"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F208">
     <sortCondition ref="E2:E208"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>